--- a/Investment/THS/AutoTrade/data/Strategy_position.xlsx
+++ b/Investment/THS/AutoTrade/data/Strategy_position.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="174">
   <si>
     <t>名称</t>
   </si>
@@ -61,21 +61,21 @@
     <t>买入</t>
   </si>
   <si>
-    <t>巨人网络</t>
-  </si>
-  <si>
-    <t>赛意信息</t>
+    <t>豆神教育</t>
+  </si>
+  <si>
+    <t>湖南投资</t>
   </si>
   <si>
     <t>粤宏远A</t>
   </si>
   <si>
+    <t>先锋新材</t>
+  </si>
+  <si>
     <t>太辰光</t>
   </si>
   <si>
-    <t>湖南投资</t>
-  </si>
-  <si>
     <t>*ST亚太</t>
   </si>
   <si>
@@ -241,21 +241,21 @@
     <t>科汇股份</t>
   </si>
   <si>
-    <t>002558</t>
-  </si>
-  <si>
-    <t>300687</t>
+    <t>300010</t>
+  </si>
+  <si>
+    <t>000548</t>
   </si>
   <si>
     <t>000573</t>
   </si>
   <si>
+    <t>300163</t>
+  </si>
+  <si>
     <t>300570</t>
   </si>
   <si>
-    <t>000548</t>
-  </si>
-  <si>
     <t>000691</t>
   </si>
   <si>
@@ -421,39 +421,39 @@
     <t>688681</t>
   </si>
   <si>
+    <t>创业板</t>
+  </si>
+  <si>
     <t>沪深A股</t>
   </si>
   <si>
-    <t>创业板</t>
-  </si>
-  <si>
     <t>科创板</t>
   </si>
   <si>
-    <t>2025-07-18 09:31:00</t>
-  </si>
-  <si>
-    <t>2025-07-16 15:45:00</t>
-  </si>
-  <si>
-    <t>2025-07-17 16:13:00</t>
-  </si>
-  <si>
-    <t>游戏</t>
-  </si>
-  <si>
-    <t>IT服务</t>
+    <t>2025-07-21 09:31:00</t>
+  </si>
+  <si>
+    <t>2025-07-18 15:48:00</t>
+  </si>
+  <si>
+    <t>2025-07-18 16:23:00</t>
+  </si>
+  <si>
+    <t>教育</t>
+  </si>
+  <si>
+    <t>公路铁路运输</t>
   </si>
   <si>
     <t>房地产</t>
   </si>
   <si>
+    <t>家居用品</t>
+  </si>
+  <si>
     <t>通信设备</t>
   </si>
   <si>
-    <t>公路铁路运输</t>
-  </si>
-  <si>
     <t>化学原料</t>
   </si>
   <si>
@@ -494,9 +494,6 @@
   </si>
   <si>
     <t>建筑装饰</t>
-  </si>
-  <si>
-    <t>家居用品</t>
   </si>
   <si>
     <t>包装印刷</t>
@@ -896,7 +893,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:K62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -951,10 +948,10 @@
         <v>75</v>
       </c>
       <c r="F2">
-        <v>23.436</v>
+        <v>9.042</v>
       </c>
       <c r="G2">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="H2" t="s">
         <v>135</v>
@@ -966,7 +963,7 @@
         <v>141</v>
       </c>
       <c r="K2">
-        <v>0.07000000000000001</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -974,7 +971,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -986,10 +983,10 @@
         <v>76</v>
       </c>
       <c r="F3">
-        <v>27.197</v>
+        <v>5.561</v>
       </c>
       <c r="G3">
-        <v>0.34</v>
+        <v>0.21</v>
       </c>
       <c r="H3" t="s">
         <v>136</v>
@@ -1001,7 +998,7 @@
         <v>142</v>
       </c>
       <c r="K3">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1027,7 +1024,7 @@
         <v>0.53</v>
       </c>
       <c r="H4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I4" t="s">
         <v>138</v>
@@ -1044,7 +1041,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -1056,22 +1053,22 @@
         <v>78</v>
       </c>
       <c r="F5">
-        <v>13.648</v>
+        <v>3.781</v>
       </c>
       <c r="G5">
-        <v>0.72</v>
+        <v>0.21</v>
       </c>
       <c r="H5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J5" t="s">
         <v>144</v>
       </c>
       <c r="K5">
-        <v>6.32</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1079,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -1091,22 +1088,22 @@
         <v>79</v>
       </c>
       <c r="F6">
-        <v>5.23</v>
+        <v>13.648</v>
       </c>
       <c r="G6">
-        <v>0.02</v>
+        <v>0.72</v>
       </c>
       <c r="H6" t="s">
         <v>135</v>
       </c>
       <c r="I6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J6" t="s">
         <v>145</v>
       </c>
       <c r="K6">
-        <v>0.05</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1120,28 +1117,28 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F7">
-        <v>4.32</v>
+        <v>5.23</v>
       </c>
       <c r="G7">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="H7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I7" t="s">
         <v>140</v>
       </c>
       <c r="J7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K7">
-        <v>0.25</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1155,28 +1152,28 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F8">
-        <v>3.17</v>
+        <v>4.32</v>
       </c>
       <c r="G8">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I8" t="s">
         <v>140</v>
       </c>
       <c r="J8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K8">
-        <v>-0.03</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1190,28 +1187,28 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F9">
-        <v>6.54</v>
+        <v>3.17</v>
       </c>
       <c r="G9">
         <v>0.02</v>
       </c>
       <c r="H9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I9" t="s">
         <v>140</v>
       </c>
       <c r="J9" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K9">
-        <v>-0.03</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1225,28 +1222,28 @@
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F10">
-        <v>8.369999999999999</v>
+        <v>6.54</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="H10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I10" t="s">
         <v>140</v>
       </c>
       <c r="J10" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="K10">
-        <v>-0.03</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1260,28 +1257,28 @@
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F11">
-        <v>13.69</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="G11">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I11" t="s">
         <v>140</v>
       </c>
       <c r="J11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K11">
-        <v>0.05</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1295,28 +1292,28 @@
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F12">
-        <v>19.92</v>
+        <v>13.69</v>
       </c>
       <c r="G12">
         <v>0.02</v>
       </c>
       <c r="H12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I12" t="s">
         <v>140</v>
       </c>
       <c r="J12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K12">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1330,28 +1327,28 @@
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F13">
-        <v>18.18</v>
+        <v>19.92</v>
       </c>
       <c r="G13">
         <v>0.02</v>
       </c>
       <c r="H13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I13" t="s">
         <v>140</v>
       </c>
       <c r="J13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K13">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1365,28 +1362,28 @@
         <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F14">
-        <v>19.88</v>
+        <v>18.18</v>
       </c>
       <c r="G14">
         <v>0.02</v>
       </c>
       <c r="H14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I14" t="s">
         <v>140</v>
       </c>
       <c r="J14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K14">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1400,28 +1397,28 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F15">
-        <v>21.38</v>
+        <v>19.88</v>
       </c>
       <c r="G15">
         <v>0.02</v>
       </c>
       <c r="H15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I15" t="s">
         <v>140</v>
       </c>
       <c r="J15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K15">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1435,28 +1432,28 @@
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F16">
-        <v>13.89</v>
+        <v>21.38</v>
       </c>
       <c r="G16">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="H16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I16" t="s">
         <v>140</v>
       </c>
       <c r="J16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K16">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1470,28 +1467,28 @@
         <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F17">
-        <v>12.26</v>
+        <v>13.89</v>
       </c>
       <c r="G17">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I17" t="s">
         <v>140</v>
       </c>
       <c r="J17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K17">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1505,28 +1502,28 @@
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F18">
-        <v>6.7</v>
+        <v>12.26</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="H18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I18" t="s">
         <v>140</v>
       </c>
       <c r="J18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K18">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1540,28 +1537,28 @@
         <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F19">
-        <v>4.6</v>
+        <v>6.7</v>
       </c>
       <c r="G19">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I19" t="s">
         <v>140</v>
       </c>
       <c r="J19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K19">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1575,25 +1572,25 @@
         <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F20">
-        <v>9.619999999999999</v>
+        <v>4.6</v>
       </c>
       <c r="G20">
         <v>0.02</v>
       </c>
       <c r="H20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I20" t="s">
         <v>140</v>
       </c>
       <c r="J20" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="K20">
         <v>0.03</v>
@@ -1610,28 +1607,28 @@
         <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F21">
-        <v>7.53</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="H21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I21" t="s">
         <v>140</v>
       </c>
       <c r="J21" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="K21">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1645,28 +1642,28 @@
         <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F22">
-        <v>14.62</v>
+        <v>7.53</v>
       </c>
       <c r="G22">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I22" t="s">
         <v>140</v>
       </c>
       <c r="J22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K22">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1680,28 +1677,28 @@
         <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F23">
-        <v>19</v>
+        <v>14.62</v>
       </c>
       <c r="G23">
         <v>0.02</v>
       </c>
       <c r="H23" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I23" t="s">
         <v>140</v>
       </c>
       <c r="J23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1715,28 +1712,28 @@
         <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F24">
-        <v>11.32</v>
+        <v>19</v>
       </c>
       <c r="G24">
         <v>0.02</v>
       </c>
       <c r="H24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I24" t="s">
         <v>140</v>
       </c>
       <c r="J24" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="K24">
-        <v>0.08</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1750,13 +1747,13 @@
         <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F25">
-        <v>6.92</v>
+        <v>11.32</v>
       </c>
       <c r="G25">
         <v>0.02</v>
@@ -1768,10 +1765,10 @@
         <v>140</v>
       </c>
       <c r="J25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K25">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1785,28 +1782,28 @@
         <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F26">
-        <v>3.53</v>
+        <v>6.92</v>
       </c>
       <c r="G26">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="H26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I26" t="s">
         <v>140</v>
       </c>
       <c r="J26" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K26">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1820,28 +1817,28 @@
         <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F27">
-        <v>11.9</v>
+        <v>3.53</v>
       </c>
       <c r="G27">
         <v>0.01</v>
       </c>
       <c r="H27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I27" t="s">
         <v>140</v>
       </c>
       <c r="J27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K27">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1855,28 +1852,28 @@
         <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F28">
-        <v>13.99</v>
+        <v>11.9</v>
       </c>
       <c r="G28">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I28" t="s">
         <v>140</v>
       </c>
       <c r="J28" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K28">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1890,25 +1887,25 @@
         <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F29">
-        <v>10.04</v>
+        <v>13.99</v>
       </c>
       <c r="G29">
         <v>0.02</v>
       </c>
       <c r="H29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I29" t="s">
         <v>140</v>
       </c>
       <c r="J29" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K29">
         <v>0.07000000000000001</v>
@@ -1925,28 +1922,28 @@
         <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F30">
-        <v>12.78</v>
+        <v>10.04</v>
       </c>
       <c r="G30">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="H30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I30" t="s">
         <v>140</v>
       </c>
       <c r="J30" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="K30">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1960,25 +1957,25 @@
         <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F31">
-        <v>11.008</v>
+        <v>12.78</v>
       </c>
       <c r="G31">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I31" t="s">
         <v>140</v>
       </c>
       <c r="J31" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K31">
         <v>0.05</v>
@@ -1995,28 +1992,28 @@
         <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F32">
-        <v>18.17</v>
+        <v>11.008</v>
       </c>
       <c r="G32">
         <v>0.02</v>
       </c>
       <c r="H32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I32" t="s">
         <v>140</v>
       </c>
       <c r="J32" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="K32">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2030,28 +2027,28 @@
         <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F33">
-        <v>19.91</v>
+        <v>18.17</v>
       </c>
       <c r="G33">
         <v>0.02</v>
       </c>
       <c r="H33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I33" t="s">
         <v>140</v>
       </c>
       <c r="J33" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K33">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2065,13 +2062,13 @@
         <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F34">
-        <v>6.38</v>
+        <v>19.91</v>
       </c>
       <c r="G34">
         <v>0.02</v>
@@ -2083,10 +2080,10 @@
         <v>140</v>
       </c>
       <c r="J34" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="K34">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2100,28 +2097,28 @@
         <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F35">
-        <v>7.66</v>
+        <v>6.38</v>
       </c>
       <c r="G35">
         <v>0.02</v>
       </c>
       <c r="H35" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I35" t="s">
         <v>140</v>
       </c>
       <c r="J35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K35">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2135,28 +2132,28 @@
         <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F36">
-        <v>2.31</v>
+        <v>7.66</v>
       </c>
       <c r="G36">
         <v>0.02</v>
       </c>
       <c r="H36" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I36" t="s">
         <v>140</v>
       </c>
       <c r="J36" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="K36">
-        <v>0.02</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2170,28 +2167,28 @@
         <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F37">
-        <v>4.72</v>
+        <v>2.31</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="H37" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I37" t="s">
         <v>140</v>
       </c>
       <c r="J37" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="K37">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2205,25 +2202,25 @@
         <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F38">
-        <v>3.91</v>
+        <v>4.72</v>
       </c>
       <c r="G38">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I38" t="s">
         <v>140</v>
       </c>
       <c r="J38" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="K38">
         <v>0.04</v>
@@ -2240,28 +2237,28 @@
         <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F39">
-        <v>7.48</v>
+        <v>3.91</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="H39" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I39" t="s">
         <v>140</v>
       </c>
       <c r="J39" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="K39">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2275,28 +2272,28 @@
         <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F40">
-        <v>6.64</v>
+        <v>7.48</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I40" t="s">
         <v>140</v>
       </c>
       <c r="J40" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="K40">
-        <v>0.25</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2310,28 +2307,28 @@
         <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F41">
-        <v>16.35</v>
+        <v>6.64</v>
       </c>
       <c r="G41">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I41" t="s">
         <v>140</v>
       </c>
       <c r="J41" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="K41">
-        <v>0.08</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2345,28 +2342,28 @@
         <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F42">
-        <v>15.75</v>
+        <v>16.35</v>
       </c>
       <c r="G42">
         <v>0.02</v>
       </c>
       <c r="H42" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I42" t="s">
         <v>140</v>
       </c>
       <c r="J42" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K42">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2380,28 +2377,28 @@
         <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F43">
-        <v>4.78</v>
+        <v>15.75</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="H43" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I43" t="s">
         <v>140</v>
       </c>
       <c r="J43" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="K43">
-        <v>0.22</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2415,28 +2412,28 @@
         <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F44">
-        <v>8.74</v>
+        <v>4.78</v>
       </c>
       <c r="G44">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I44" t="s">
         <v>140</v>
       </c>
       <c r="J44" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K44">
-        <v>0.07000000000000001</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2450,28 +2447,28 @@
         <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F45">
-        <v>13.23</v>
+        <v>8.74</v>
       </c>
       <c r="G45">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="H45" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I45" t="s">
         <v>140</v>
       </c>
       <c r="J45" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="K45">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2485,28 +2482,28 @@
         <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F46">
-        <v>4.15</v>
+        <v>13.23</v>
       </c>
       <c r="G46">
         <v>0.01</v>
       </c>
       <c r="H46" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I46" t="s">
         <v>140</v>
       </c>
       <c r="J46" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="K46">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2520,28 +2517,28 @@
         <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E47" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F47">
-        <v>7.45</v>
+        <v>4.15</v>
       </c>
       <c r="G47">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H47" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I47" t="s">
         <v>140</v>
       </c>
       <c r="J47" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="K47">
-        <v>0.21</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2555,28 +2552,28 @@
         <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F48">
-        <v>5.34</v>
+        <v>7.45</v>
       </c>
       <c r="G48">
         <v>0.02</v>
       </c>
       <c r="H48" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I48" t="s">
         <v>140</v>
       </c>
       <c r="J48" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K48">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2590,28 +2587,28 @@
         <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F49">
-        <v>9.07</v>
+        <v>5.34</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="H49" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I49" t="s">
         <v>140</v>
       </c>
       <c r="J49" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K49">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2625,28 +2622,28 @@
         <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F50">
-        <v>11.33</v>
+        <v>9.07</v>
       </c>
       <c r="G50">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I50" t="s">
         <v>140</v>
       </c>
       <c r="J50" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="K50">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2660,28 +2657,28 @@
         <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F51">
-        <v>62.1</v>
+        <v>11.33</v>
       </c>
       <c r="G51">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I51" t="s">
         <v>140</v>
       </c>
       <c r="J51" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="K51">
-        <v>-0.1</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2695,16 +2692,16 @@
         <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E52" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F52">
-        <v>6.09</v>
+        <v>62.1</v>
       </c>
       <c r="G52">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="H52" t="s">
         <v>137</v>
@@ -2713,10 +2710,10 @@
         <v>140</v>
       </c>
       <c r="J52" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K52">
-        <v>0.04</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2730,16 +2727,16 @@
         <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E53" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F53">
-        <v>8.130000000000001</v>
+        <v>6.09</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H53" t="s">
         <v>137</v>
@@ -2748,10 +2745,10 @@
         <v>140</v>
       </c>
       <c r="J53" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K53">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2765,16 +2762,16 @@
         <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E54" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F54">
-        <v>12.57</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="G54">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H54" t="s">
         <v>137</v>
@@ -2783,10 +2780,10 @@
         <v>140</v>
       </c>
       <c r="J54" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="K54">
-        <v>-0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2800,16 +2797,16 @@
         <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E55" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F55">
-        <v>17.66</v>
+        <v>12.57</v>
       </c>
       <c r="G55">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H55" t="s">
         <v>137</v>
@@ -2818,10 +2815,10 @@
         <v>140</v>
       </c>
       <c r="J55" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="K55">
-        <v>0.01</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2835,16 +2832,16 @@
         <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E56" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F56">
-        <v>7.4</v>
+        <v>17.66</v>
       </c>
       <c r="G56">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="H56" t="s">
         <v>137</v>
@@ -2853,10 +2850,10 @@
         <v>140</v>
       </c>
       <c r="J56" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="K56">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2870,16 +2867,16 @@
         <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E57" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F57">
-        <v>10.44</v>
+        <v>7.4</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H57" t="s">
         <v>137</v>
@@ -2888,10 +2885,10 @@
         <v>140</v>
       </c>
       <c r="J57" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="K57">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2905,16 +2902,16 @@
         <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F58">
-        <v>14.14</v>
+        <v>10.44</v>
       </c>
       <c r="G58">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H58" t="s">
         <v>137</v>
@@ -2923,10 +2920,10 @@
         <v>140</v>
       </c>
       <c r="J58" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="K58">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2940,13 +2937,13 @@
         <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E59" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F59">
-        <v>18.49</v>
+        <v>14.14</v>
       </c>
       <c r="G59">
         <v>0.01</v>
@@ -2958,10 +2955,10 @@
         <v>140</v>
       </c>
       <c r="J59" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="K59">
-        <v>0.22</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2975,13 +2972,13 @@
         <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E60" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F60">
-        <v>8.789999999999999</v>
+        <v>18.49</v>
       </c>
       <c r="G60">
         <v>0.01</v>
@@ -2993,10 +2990,10 @@
         <v>140</v>
       </c>
       <c r="J60" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="K60">
-        <v>0.01</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3010,13 +3007,13 @@
         <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E61" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F61">
-        <v>14.04</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="G61">
         <v>0.01</v>
@@ -3028,10 +3025,45 @@
         <v>140</v>
       </c>
       <c r="J61" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="K61">
-        <v>0.02</v>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" t="s">
+        <v>74</v>
+      </c>
+      <c r="E62" t="s">
+        <v>134</v>
+      </c>
+      <c r="F62">
+        <v>14.04</v>
+      </c>
+      <c r="G62">
+        <v>0.01</v>
+      </c>
+      <c r="H62" t="s">
+        <v>137</v>
+      </c>
+      <c r="I62" t="s">
+        <v>140</v>
+      </c>
+      <c r="J62" t="s">
+        <v>173</v>
+      </c>
+      <c r="K62">
+        <v>0.04</v>
       </c>
     </row>
   </sheetData>

--- a/Investment/THS/AutoTrade/data/Strategy_position.xlsx
+++ b/Investment/THS/AutoTrade/data/Strategy_position.xlsx
@@ -58,10 +58,10 @@
     <t>买入</t>
   </si>
   <si>
-    <t>居然智家</t>
-  </si>
-  <si>
-    <t>湖南投资</t>
+    <t>梦网科技</t>
+  </si>
+  <si>
+    <t>先锋新材</t>
   </si>
   <si>
     <t>粤宏远A</t>
@@ -70,10 +70,10 @@
     <t>太辰光</t>
   </si>
   <si>
-    <t>000785</t>
-  </si>
-  <si>
-    <t>000548</t>
+    <t>002123</t>
+  </si>
+  <si>
+    <t>300163</t>
   </si>
   <si>
     <t>000573</t>
@@ -88,16 +88,16 @@
     <t>创业板</t>
   </si>
   <si>
-    <t>2025-07-25 09:31:00</t>
-  </si>
-  <si>
-    <t>2025-07-24 15:46:00</t>
-  </si>
-  <si>
-    <t>零售</t>
-  </si>
-  <si>
-    <t>公路铁路运输</t>
+    <t>2025-07-28 09:31:00</t>
+  </si>
+  <si>
+    <t>2025-07-25 15:45:00</t>
+  </si>
+  <si>
+    <t>通信服务</t>
+  </si>
+  <si>
+    <t>家居用品</t>
   </si>
   <si>
     <t>房地产</t>
@@ -516,10 +516,10 @@
         <v>18</v>
       </c>
       <c r="F2">
-        <v>3.081</v>
+        <v>14.444</v>
       </c>
       <c r="G2">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="H2" t="s">
         <v>22</v>
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="K2">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -551,13 +551,13 @@
         <v>19</v>
       </c>
       <c r="F3">
-        <v>5.561</v>
+        <v>3.311</v>
       </c>
       <c r="G3">
-        <v>0.06</v>
+        <v>0.55</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
         <v>24</v>
@@ -566,7 +566,7 @@
         <v>27</v>
       </c>
       <c r="K3">
-        <v>0.01</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -589,7 +589,7 @@
         <v>4.191</v>
       </c>
       <c r="G4">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
@@ -624,7 +624,7 @@
         <v>13.648</v>
       </c>
       <c r="G5">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="H5" t="s">
         <v>23</v>
@@ -636,7 +636,7 @@
         <v>29</v>
       </c>
       <c r="K5">
-        <v>6.64</v>
+        <v>6.55</v>
       </c>
     </row>
   </sheetData>

--- a/Investment/THS/AutoTrade/data/Strategy_position.xlsx
+++ b/Investment/THS/AutoTrade/data/Strategy_position.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
   <si>
     <t>名称</t>
   </si>
@@ -58,46 +58,64 @@
     <t>买入</t>
   </si>
   <si>
+    <t>创意信息</t>
+  </si>
+  <si>
     <t>梦网科技</t>
   </si>
   <si>
     <t>先锋新材</t>
   </si>
   <si>
+    <t>银座股份</t>
+  </si>
+  <si>
     <t>粤宏远A</t>
   </si>
   <si>
     <t>太辰光</t>
   </si>
   <si>
+    <t>300366</t>
+  </si>
+  <si>
     <t>002123</t>
   </si>
   <si>
     <t>300163</t>
   </si>
   <si>
+    <t>600858</t>
+  </si>
+  <si>
     <t>000573</t>
   </si>
   <si>
     <t>300570</t>
   </si>
   <si>
+    <t>创业板</t>
+  </si>
+  <si>
     <t>沪深A股</t>
   </si>
   <si>
-    <t>创业板</t>
-  </si>
-  <si>
-    <t>2025-07-28 09:31:00</t>
-  </si>
-  <si>
-    <t>2025-07-25 15:45:00</t>
+    <t>2025-07-29 09:31:00</t>
+  </si>
+  <si>
+    <t>2025-07-28 15:46:00</t>
+  </si>
+  <si>
+    <t>软件开发</t>
   </si>
   <si>
     <t>通信服务</t>
   </si>
   <si>
     <t>家居用品</t>
+  </si>
+  <si>
+    <t>零售</t>
   </si>
   <si>
     <t>房地产</t>
@@ -461,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,25 +531,25 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2">
-        <v>14.444</v>
+        <v>8.132</v>
       </c>
       <c r="G2">
-        <v>0.31</v>
+        <v>0.26</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K2">
-        <v>0.01</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -539,7 +557,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -548,25 +566,25 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F3">
-        <v>3.311</v>
+        <v>14.444</v>
       </c>
       <c r="G3">
-        <v>0.55</v>
+        <v>0.3</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K3">
-        <v>-0.01</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -583,25 +601,25 @@
         <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4">
-        <v>4.191</v>
+        <v>3.311</v>
       </c>
       <c r="G4">
-        <v>0.34</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K4">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -609,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -618,25 +636,95 @@
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F5">
+        <v>5.741</v>
+      </c>
+      <c r="G5">
+        <v>0.1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6">
+        <v>4.191</v>
+      </c>
+      <c r="G6">
+        <v>0.33</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7">
         <v>13.648</v>
       </c>
-      <c r="G5">
-        <v>0.72</v>
-      </c>
-      <c r="H5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="G7">
+        <v>0.73</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
         <v>29</v>
       </c>
-      <c r="K5">
-        <v>6.55</v>
+      <c r="J7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7">
+        <v>6.74</v>
       </c>
     </row>
   </sheetData>

--- a/Investment/THS/AutoTrade/data/Strategy_position.xlsx
+++ b/Investment/THS/AutoTrade/data/Strategy_position.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="153">
   <si>
     <t>名称</t>
   </si>
@@ -46,82 +46,433 @@
     <t>盈亏比例</t>
   </si>
   <si>
+    <t>AI市场追踪策略</t>
+  </si>
+  <si>
     <t>GPT定期精选</t>
   </si>
   <si>
-    <t>低价小市值股战法</t>
-  </si>
-  <si>
-    <t>高现金毛利战法</t>
-  </si>
-  <si>
     <t>买入</t>
   </si>
   <si>
+    <t>德龙汇能</t>
+  </si>
+  <si>
+    <t>浩物股份</t>
+  </si>
+  <si>
+    <t>*ST兰黄</t>
+  </si>
+  <si>
+    <t>洪兴股份</t>
+  </si>
+  <si>
+    <t>农心科技</t>
+  </si>
+  <si>
+    <t>利仁科技</t>
+  </si>
+  <si>
+    <t>坤泰股份</t>
+  </si>
+  <si>
+    <t>一彬科技</t>
+  </si>
+  <si>
+    <t>美能能源</t>
+  </si>
+  <si>
+    <t>箭牌家居</t>
+  </si>
+  <si>
+    <t>光华股份</t>
+  </si>
+  <si>
+    <t>楚环科技</t>
+  </si>
+  <si>
+    <t>兴欣新材</t>
+  </si>
+  <si>
+    <t>播恩集团</t>
+  </si>
+  <si>
+    <t>中天服务</t>
+  </si>
+  <si>
+    <t>华斯股份</t>
+  </si>
+  <si>
+    <t>ST瑞和</t>
+  </si>
+  <si>
+    <t>福建金森</t>
+  </si>
+  <si>
+    <t>乔治白</t>
+  </si>
+  <si>
+    <t>汇洁股份</t>
+  </si>
+  <si>
+    <t>名雕股份</t>
+  </si>
+  <si>
+    <t>豪尔赛</t>
+  </si>
+  <si>
+    <t>优彩资源</t>
+  </si>
+  <si>
+    <t>天禾股份</t>
+  </si>
+  <si>
+    <t>锐奇股份</t>
+  </si>
+  <si>
+    <t>顶固集创</t>
+  </si>
+  <si>
+    <t>浙江力诺</t>
+  </si>
+  <si>
+    <t>华骐环保</t>
+  </si>
+  <si>
+    <t>冠中生态</t>
+  </si>
+  <si>
+    <t>华绿生物</t>
+  </si>
+  <si>
+    <t>建研设计</t>
+  </si>
+  <si>
+    <t>仁信新材</t>
+  </si>
+  <si>
+    <t>森泰股份</t>
+  </si>
+  <si>
+    <t>林海股份</t>
+  </si>
+  <si>
+    <t>ST明诚</t>
+  </si>
+  <si>
+    <t>金鹰股份</t>
+  </si>
+  <si>
+    <t>民丰特纸</t>
+  </si>
+  <si>
+    <t>凤竹纺织</t>
+  </si>
+  <si>
+    <t>菲达环保</t>
+  </si>
+  <si>
+    <t>欧亚集团</t>
+  </si>
+  <si>
+    <t>宁波富邦</t>
+  </si>
+  <si>
+    <t>京能置业</t>
+  </si>
+  <si>
+    <t>中重科技</t>
+  </si>
+  <si>
+    <t>建研院</t>
+  </si>
+  <si>
+    <t>百达精工</t>
+  </si>
+  <si>
+    <t>宁水集团</t>
+  </si>
+  <si>
+    <t>歌力思</t>
+  </si>
+  <si>
+    <t>中持股份</t>
+  </si>
+  <si>
+    <t>春雪食品</t>
+  </si>
+  <si>
+    <t>九州一轨</t>
+  </si>
+  <si>
+    <t>金冠电气</t>
+  </si>
+  <si>
+    <t>梦网科技</t>
+  </si>
+  <si>
     <t>创意信息</t>
   </si>
   <si>
-    <t>梦网科技</t>
-  </si>
-  <si>
-    <t>先锋新材</t>
-  </si>
-  <si>
-    <t>银座股份</t>
-  </si>
-  <si>
-    <t>粤宏远A</t>
-  </si>
-  <si>
-    <t>太辰光</t>
+    <t>000593</t>
+  </si>
+  <si>
+    <t>000757</t>
+  </si>
+  <si>
+    <t>000929</t>
+  </si>
+  <si>
+    <t>001209</t>
+  </si>
+  <si>
+    <t>001231</t>
+  </si>
+  <si>
+    <t>001259</t>
+  </si>
+  <si>
+    <t>001260</t>
+  </si>
+  <si>
+    <t>001278</t>
+  </si>
+  <si>
+    <t>001299</t>
+  </si>
+  <si>
+    <t>001322</t>
+  </si>
+  <si>
+    <t>001333</t>
+  </si>
+  <si>
+    <t>001336</t>
+  </si>
+  <si>
+    <t>001358</t>
+  </si>
+  <si>
+    <t>001366</t>
+  </si>
+  <si>
+    <t>002188</t>
+  </si>
+  <si>
+    <t>002494</t>
+  </si>
+  <si>
+    <t>002620</t>
+  </si>
+  <si>
+    <t>002679</t>
+  </si>
+  <si>
+    <t>002687</t>
+  </si>
+  <si>
+    <t>002763</t>
+  </si>
+  <si>
+    <t>002830</t>
+  </si>
+  <si>
+    <t>002963</t>
+  </si>
+  <si>
+    <t>002998</t>
+  </si>
+  <si>
+    <t>002999</t>
+  </si>
+  <si>
+    <t>300126</t>
+  </si>
+  <si>
+    <t>300749</t>
+  </si>
+  <si>
+    <t>300838</t>
+  </si>
+  <si>
+    <t>300929</t>
+  </si>
+  <si>
+    <t>300948</t>
+  </si>
+  <si>
+    <t>300970</t>
+  </si>
+  <si>
+    <t>301167</t>
+  </si>
+  <si>
+    <t>301395</t>
+  </si>
+  <si>
+    <t>301429</t>
+  </si>
+  <si>
+    <t>600099</t>
+  </si>
+  <si>
+    <t>600136</t>
+  </si>
+  <si>
+    <t>600232</t>
+  </si>
+  <si>
+    <t>600235</t>
+  </si>
+  <si>
+    <t>600493</t>
+  </si>
+  <si>
+    <t>600526</t>
+  </si>
+  <si>
+    <t>600697</t>
+  </si>
+  <si>
+    <t>600768</t>
+  </si>
+  <si>
+    <t>600791</t>
+  </si>
+  <si>
+    <t>603135</t>
+  </si>
+  <si>
+    <t>603183</t>
+  </si>
+  <si>
+    <t>603331</t>
+  </si>
+  <si>
+    <t>603700</t>
+  </si>
+  <si>
+    <t>603808</t>
+  </si>
+  <si>
+    <t>603903</t>
+  </si>
+  <si>
+    <t>605567</t>
+  </si>
+  <si>
+    <t>688485</t>
+  </si>
+  <si>
+    <t>688517</t>
+  </si>
+  <si>
+    <t>002123</t>
   </si>
   <si>
     <t>300366</t>
   </si>
   <si>
-    <t>002123</t>
-  </si>
-  <si>
-    <t>300163</t>
-  </si>
-  <si>
-    <t>600858</t>
-  </si>
-  <si>
-    <t>000573</t>
-  </si>
-  <si>
-    <t>300570</t>
+    <t>沪深A股</t>
   </si>
   <si>
     <t>创业板</t>
   </si>
   <si>
-    <t>沪深A股</t>
-  </si>
-  <si>
-    <t>2025-07-29 09:31:00</t>
-  </si>
-  <si>
-    <t>2025-07-28 15:46:00</t>
+    <t>科创板</t>
+  </si>
+  <si>
+    <t>2025-07-30 16:14:00</t>
+  </si>
+  <si>
+    <t>2025-07-30 16:13:00</t>
+  </si>
+  <si>
+    <t>燃气</t>
+  </si>
+  <si>
+    <t>汽车服务及其他</t>
+  </si>
+  <si>
+    <t>饮料制造</t>
+  </si>
+  <si>
+    <t>服装家纺</t>
+  </si>
+  <si>
+    <t>农化制品</t>
+  </si>
+  <si>
+    <t>小家电</t>
+  </si>
+  <si>
+    <t>汽车零部件</t>
+  </si>
+  <si>
+    <t>家居用品</t>
+  </si>
+  <si>
+    <t>塑料制品</t>
+  </si>
+  <si>
+    <t>环保设备</t>
+  </si>
+  <si>
+    <t>化学制品</t>
+  </si>
+  <si>
+    <t>农产品加工</t>
+  </si>
+  <si>
+    <t>房地产</t>
+  </si>
+  <si>
+    <t>建筑装饰</t>
+  </si>
+  <si>
+    <t>种植业与林业</t>
+  </si>
+  <si>
+    <t>化学纤维</t>
+  </si>
+  <si>
+    <t>通用设备</t>
+  </si>
+  <si>
+    <t>环境治理</t>
+  </si>
+  <si>
+    <t>建筑材料</t>
+  </si>
+  <si>
+    <t>影视院线</t>
+  </si>
+  <si>
+    <t>纺织制造</t>
+  </si>
+  <si>
+    <t>造纸</t>
+  </si>
+  <si>
+    <t>零售</t>
+  </si>
+  <si>
+    <t>电网设备</t>
+  </si>
+  <si>
+    <t>专用设备</t>
+  </si>
+  <si>
+    <t>其他社会服务</t>
+  </si>
+  <si>
+    <t>食品加工制造</t>
+  </si>
+  <si>
+    <t>通信服务</t>
   </si>
   <si>
     <t>软件开发</t>
-  </si>
-  <si>
-    <t>通信服务</t>
-  </si>
-  <si>
-    <t>家居用品</t>
-  </si>
-  <si>
-    <t>零售</t>
-  </si>
-  <si>
-    <t>房地产</t>
-  </si>
-  <si>
-    <t>通信设备</t>
   </si>
 </sst>
 </file>
@@ -479,7 +830,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +876,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="F2">
-        <v>8.132</v>
+        <v>6.49</v>
       </c>
       <c r="G2">
-        <v>0.26</v>
+        <v>0.02</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="K2">
-        <v>-0</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -560,31 +911,31 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="F3">
-        <v>14.444</v>
+        <v>4.86</v>
       </c>
       <c r="G3">
-        <v>0.3</v>
+        <v>0.02</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="K3">
-        <v>0.01</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -592,34 +943,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="F4">
-        <v>3.311</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="G4">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="J4" t="s">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="K4">
-        <v>0.02</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -627,34 +978,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="F5">
-        <v>5.741</v>
+        <v>17.92</v>
       </c>
       <c r="G5">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="I5" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="J5" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -662,34 +1013,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="F6">
-        <v>4.191</v>
+        <v>19.92</v>
       </c>
       <c r="G6">
-        <v>0.33</v>
+        <v>0.02</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="I6" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -697,34 +1048,1679 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7">
+        <v>25.82</v>
+      </c>
+      <c r="G7">
+        <v>0.02</v>
+      </c>
+      <c r="H7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I7" t="s">
+        <v>122</v>
+      </c>
+      <c r="J7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K7">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8">
+        <v>18.18</v>
+      </c>
+      <c r="G8">
+        <v>0.02</v>
+      </c>
+      <c r="H8" t="s">
+        <v>119</v>
+      </c>
+      <c r="I8" t="s">
+        <v>122</v>
+      </c>
+      <c r="J8" t="s">
+        <v>130</v>
+      </c>
+      <c r="K8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9">
+        <v>18.07</v>
+      </c>
+      <c r="G9">
+        <v>0.02</v>
+      </c>
+      <c r="H9" t="s">
+        <v>119</v>
+      </c>
+      <c r="I9" t="s">
+        <v>122</v>
+      </c>
+      <c r="J9" t="s">
+        <v>130</v>
+      </c>
+      <c r="K9">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10">
+        <v>11.66</v>
+      </c>
+      <c r="G10">
+        <v>0.02</v>
+      </c>
+      <c r="H10" t="s">
+        <v>119</v>
+      </c>
+      <c r="I10" t="s">
+        <v>122</v>
+      </c>
+      <c r="J10" t="s">
+        <v>124</v>
+      </c>
+      <c r="K10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11">
+        <v>8.73</v>
+      </c>
+      <c r="G11">
+        <v>0.01</v>
+      </c>
+      <c r="H11" t="s">
+        <v>119</v>
+      </c>
+      <c r="I11" t="s">
+        <v>122</v>
+      </c>
+      <c r="J11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12">
+        <v>19.88</v>
+      </c>
+      <c r="G12">
+        <v>0.02</v>
+      </c>
+      <c r="H12" t="s">
+        <v>119</v>
+      </c>
+      <c r="I12" t="s">
+        <v>122</v>
+      </c>
+      <c r="J12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K12">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13">
+        <v>21.38</v>
+      </c>
+      <c r="G13">
+        <v>0.02</v>
+      </c>
+      <c r="H13" t="s">
+        <v>119</v>
+      </c>
+      <c r="I13" t="s">
+        <v>122</v>
+      </c>
+      <c r="J13" t="s">
+        <v>133</v>
+      </c>
+      <c r="K13">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14">
+        <v>23.47</v>
+      </c>
+      <c r="G14">
+        <v>0.02</v>
+      </c>
+      <c r="H14" t="s">
+        <v>119</v>
+      </c>
+      <c r="I14" t="s">
+        <v>122</v>
+      </c>
+      <c r="J14" t="s">
+        <v>134</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15">
+        <v>12.26</v>
+      </c>
+      <c r="G15">
+        <v>0.02</v>
+      </c>
+      <c r="H15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I15" t="s">
+        <v>122</v>
+      </c>
+      <c r="J15" t="s">
+        <v>135</v>
+      </c>
+      <c r="K15">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16">
+        <v>5.66</v>
+      </c>
+      <c r="G16">
+        <v>0.02</v>
+      </c>
+      <c r="H16" t="s">
+        <v>119</v>
+      </c>
+      <c r="I16" t="s">
+        <v>122</v>
+      </c>
+      <c r="J16" t="s">
+        <v>136</v>
+      </c>
+      <c r="K16">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17">
+        <v>5.13</v>
+      </c>
+      <c r="G17">
+        <v>0.02</v>
+      </c>
+      <c r="H17" t="s">
+        <v>119</v>
+      </c>
+      <c r="I17" t="s">
+        <v>122</v>
+      </c>
+      <c r="J17" t="s">
+        <v>127</v>
+      </c>
+      <c r="K17">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18">
+        <v>3.98</v>
+      </c>
+      <c r="G18">
+        <v>0.01</v>
+      </c>
+      <c r="H18" t="s">
+        <v>119</v>
+      </c>
+      <c r="I18" t="s">
+        <v>122</v>
+      </c>
+      <c r="J18" t="s">
+        <v>137</v>
+      </c>
+      <c r="K18">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19">
+        <v>10.09</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>119</v>
+      </c>
+      <c r="I19" t="s">
+        <v>122</v>
+      </c>
+      <c r="J19" t="s">
+        <v>138</v>
+      </c>
+      <c r="K19">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20">
+        <v>4.6</v>
+      </c>
+      <c r="G20">
+        <v>0.02</v>
+      </c>
+      <c r="H20" t="s">
+        <v>119</v>
+      </c>
+      <c r="I20" t="s">
+        <v>122</v>
+      </c>
+      <c r="J20" t="s">
+        <v>127</v>
+      </c>
+      <c r="K20">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="E7" t="s">
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21">
+        <v>7.13</v>
+      </c>
+      <c r="G21">
+        <v>0.02</v>
+      </c>
+      <c r="H21" t="s">
+        <v>119</v>
+      </c>
+      <c r="I21" t="s">
+        <v>122</v>
+      </c>
+      <c r="J21" t="s">
+        <v>127</v>
+      </c>
+      <c r="K21">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22">
+        <v>14.62</v>
+      </c>
+      <c r="G22">
+        <v>0.02</v>
+      </c>
+      <c r="H22" t="s">
+        <v>119</v>
+      </c>
+      <c r="I22" t="s">
+        <v>122</v>
+      </c>
+      <c r="J22" t="s">
+        <v>137</v>
+      </c>
+      <c r="K22">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23">
+        <v>13.15</v>
+      </c>
+      <c r="G23">
+        <v>0.02</v>
+      </c>
+      <c r="H23" t="s">
+        <v>119</v>
+      </c>
+      <c r="I23" t="s">
+        <v>122</v>
+      </c>
+      <c r="J23" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24">
+        <v>7.49</v>
+      </c>
+      <c r="G24">
+        <v>0.02</v>
+      </c>
+      <c r="H24" t="s">
+        <v>119</v>
+      </c>
+      <c r="I24" t="s">
+        <v>122</v>
+      </c>
+      <c r="J24" t="s">
+        <v>139</v>
+      </c>
+      <c r="K24">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25">
+        <v>7.18</v>
+      </c>
+      <c r="G25">
+        <v>0.02</v>
+      </c>
+      <c r="H25" t="s">
+        <v>119</v>
+      </c>
+      <c r="I25" t="s">
+        <v>122</v>
+      </c>
+      <c r="J25" t="s">
+        <v>128</v>
+      </c>
+      <c r="K25">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26">
+        <v>7.48</v>
+      </c>
+      <c r="G26">
+        <v>0.02</v>
+      </c>
+      <c r="H26" t="s">
+        <v>120</v>
+      </c>
+      <c r="I26" t="s">
+        <v>122</v>
+      </c>
+      <c r="J26" t="s">
+        <v>140</v>
+      </c>
+      <c r="K26">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="F7">
-        <v>13.648</v>
-      </c>
-      <c r="G7">
-        <v>0.73</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27">
+        <v>8.91</v>
+      </c>
+      <c r="G27">
+        <v>0.02</v>
+      </c>
+      <c r="H27" t="s">
+        <v>120</v>
+      </c>
+      <c r="I27" t="s">
+        <v>122</v>
+      </c>
+      <c r="J27" t="s">
+        <v>131</v>
+      </c>
+      <c r="K27">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="I7" t="s">
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28">
+        <v>15.14</v>
+      </c>
+      <c r="G28">
+        <v>0.02</v>
+      </c>
+      <c r="H28" t="s">
+        <v>120</v>
+      </c>
+      <c r="I28" t="s">
+        <v>122</v>
+      </c>
+      <c r="J28" t="s">
+        <v>140</v>
+      </c>
+      <c r="K28">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29">
+        <v>11.21</v>
+      </c>
+      <c r="G29">
+        <v>0.02</v>
+      </c>
+      <c r="H29" t="s">
+        <v>120</v>
+      </c>
+      <c r="I29" t="s">
+        <v>122</v>
+      </c>
+      <c r="J29" t="s">
+        <v>141</v>
+      </c>
+      <c r="K29">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30">
+        <v>11.52</v>
+      </c>
+      <c r="G30">
+        <v>0.02</v>
+      </c>
+      <c r="H30" t="s">
+        <v>120</v>
+      </c>
+      <c r="I30" t="s">
+        <v>122</v>
+      </c>
+      <c r="J30" t="s">
+        <v>141</v>
+      </c>
+      <c r="K30">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="J7" t="s">
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31">
+        <v>15.27</v>
+      </c>
+      <c r="G31">
+        <v>0.02</v>
+      </c>
+      <c r="H31" t="s">
+        <v>120</v>
+      </c>
+      <c r="I31" t="s">
+        <v>122</v>
+      </c>
+      <c r="J31" t="s">
+        <v>138</v>
+      </c>
+      <c r="K31">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32">
+        <v>17.18</v>
+      </c>
+      <c r="G32">
+        <v>0.02</v>
+      </c>
+      <c r="H32" t="s">
+        <v>120</v>
+      </c>
+      <c r="I32" t="s">
+        <v>122</v>
+      </c>
+      <c r="J32" t="s">
+        <v>137</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" t="s">
+        <v>97</v>
+      </c>
+      <c r="F33">
+        <v>11.008</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>120</v>
+      </c>
+      <c r="I33" t="s">
+        <v>122</v>
+      </c>
+      <c r="J33" t="s">
+        <v>132</v>
+      </c>
+      <c r="K33">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34">
+        <v>18.17</v>
+      </c>
+      <c r="G34">
+        <v>0.02</v>
+      </c>
+      <c r="H34" t="s">
+        <v>120</v>
+      </c>
+      <c r="I34" t="s">
+        <v>122</v>
+      </c>
+      <c r="J34" t="s">
+        <v>142</v>
+      </c>
+      <c r="K34">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" t="s">
+        <v>99</v>
+      </c>
+      <c r="F35">
+        <v>11.39</v>
+      </c>
+      <c r="G35">
+        <v>0.02</v>
+      </c>
+      <c r="H35" t="s">
+        <v>119</v>
+      </c>
+      <c r="I35" t="s">
+        <v>122</v>
+      </c>
+      <c r="J35" t="s">
+        <v>125</v>
+      </c>
+      <c r="K35">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" t="s">
+        <v>100</v>
+      </c>
+      <c r="F36">
+        <v>1.95</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>119</v>
+      </c>
+      <c r="I36" t="s">
+        <v>122</v>
+      </c>
+      <c r="J36" t="s">
+        <v>143</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="K7">
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" t="s">
+        <v>101</v>
+      </c>
+      <c r="F37">
+        <v>6.45</v>
+      </c>
+      <c r="G37">
+        <v>0.02</v>
+      </c>
+      <c r="H37" t="s">
+        <v>119</v>
+      </c>
+      <c r="I37" t="s">
+        <v>122</v>
+      </c>
+      <c r="J37" t="s">
+        <v>144</v>
+      </c>
+      <c r="K37">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" t="s">
+        <v>102</v>
+      </c>
+      <c r="F38">
+        <v>6.38</v>
+      </c>
+      <c r="G38">
+        <v>0.02</v>
+      </c>
+      <c r="H38" t="s">
+        <v>119</v>
+      </c>
+      <c r="I38" t="s">
+        <v>122</v>
+      </c>
+      <c r="J38" t="s">
+        <v>145</v>
+      </c>
+      <c r="K38">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" t="s">
+        <v>103</v>
+      </c>
+      <c r="F39">
         <v>6.74</v>
+      </c>
+      <c r="G39">
+        <v>0.02</v>
+      </c>
+      <c r="H39" t="s">
+        <v>119</v>
+      </c>
+      <c r="I39" t="s">
+        <v>122</v>
+      </c>
+      <c r="J39" t="s">
+        <v>144</v>
+      </c>
+      <c r="K39">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" t="s">
+        <v>104</v>
+      </c>
+      <c r="F40">
+        <v>4.72</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40" t="s">
+        <v>119</v>
+      </c>
+      <c r="I40" t="s">
+        <v>122</v>
+      </c>
+      <c r="J40" t="s">
+        <v>133</v>
+      </c>
+      <c r="K40">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" t="s">
+        <v>105</v>
+      </c>
+      <c r="F41">
+        <v>12.33</v>
+      </c>
+      <c r="G41">
+        <v>0.02</v>
+      </c>
+      <c r="H41" t="s">
+        <v>119</v>
+      </c>
+      <c r="I41" t="s">
+        <v>122</v>
+      </c>
+      <c r="J41" t="s">
+        <v>146</v>
+      </c>
+      <c r="K41">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" t="s">
+        <v>106</v>
+      </c>
+      <c r="F42">
+        <v>12</v>
+      </c>
+      <c r="G42">
+        <v>0.02</v>
+      </c>
+      <c r="H42" t="s">
+        <v>119</v>
+      </c>
+      <c r="I42" t="s">
+        <v>122</v>
+      </c>
+      <c r="J42" t="s">
+        <v>147</v>
+      </c>
+      <c r="K42">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43" t="s">
+        <v>107</v>
+      </c>
+      <c r="F43">
+        <v>4.99</v>
+      </c>
+      <c r="G43">
+        <v>0.02</v>
+      </c>
+      <c r="H43" t="s">
+        <v>119</v>
+      </c>
+      <c r="I43" t="s">
+        <v>122</v>
+      </c>
+      <c r="J43" t="s">
+        <v>136</v>
+      </c>
+      <c r="K43">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44" t="s">
+        <v>108</v>
+      </c>
+      <c r="F44">
+        <v>10.15</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44" t="s">
+        <v>119</v>
+      </c>
+      <c r="I44" t="s">
+        <v>122</v>
+      </c>
+      <c r="J44" t="s">
+        <v>148</v>
+      </c>
+      <c r="K44">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" t="s">
+        <v>56</v>
+      </c>
+      <c r="E45" t="s">
+        <v>109</v>
+      </c>
+      <c r="F45">
+        <v>4.52</v>
+      </c>
+      <c r="G45">
+        <v>0.02</v>
+      </c>
+      <c r="H45" t="s">
+        <v>119</v>
+      </c>
+      <c r="I45" t="s">
+        <v>122</v>
+      </c>
+      <c r="J45" t="s">
+        <v>149</v>
+      </c>
+      <c r="K45">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" t="s">
+        <v>57</v>
+      </c>
+      <c r="E46" t="s">
+        <v>110</v>
+      </c>
+      <c r="F46">
+        <v>10.74</v>
+      </c>
+      <c r="G46">
+        <v>0.02</v>
+      </c>
+      <c r="H46" t="s">
+        <v>119</v>
+      </c>
+      <c r="I46" t="s">
+        <v>122</v>
+      </c>
+      <c r="J46" t="s">
+        <v>140</v>
+      </c>
+      <c r="K46">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47" t="s">
+        <v>111</v>
+      </c>
+      <c r="F47">
+        <v>12.48</v>
+      </c>
+      <c r="G47">
+        <v>0.02</v>
+      </c>
+      <c r="H47" t="s">
+        <v>119</v>
+      </c>
+      <c r="I47" t="s">
+        <v>122</v>
+      </c>
+      <c r="J47" t="s">
+        <v>140</v>
+      </c>
+      <c r="K47">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" t="s">
+        <v>112</v>
+      </c>
+      <c r="F48">
+        <v>8.289999999999999</v>
+      </c>
+      <c r="G48">
+        <v>0.01</v>
+      </c>
+      <c r="H48" t="s">
+        <v>119</v>
+      </c>
+      <c r="I48" t="s">
+        <v>122</v>
+      </c>
+      <c r="J48" t="s">
+        <v>127</v>
+      </c>
+      <c r="K48">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" t="s">
+        <v>60</v>
+      </c>
+      <c r="E49" t="s">
+        <v>113</v>
+      </c>
+      <c r="F49">
+        <v>8.02</v>
+      </c>
+      <c r="G49">
+        <v>0.02</v>
+      </c>
+      <c r="H49" t="s">
+        <v>119</v>
+      </c>
+      <c r="I49" t="s">
+        <v>122</v>
+      </c>
+      <c r="J49" t="s">
+        <v>141</v>
+      </c>
+      <c r="K49">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" t="s">
+        <v>61</v>
+      </c>
+      <c r="E50" t="s">
+        <v>114</v>
+      </c>
+      <c r="F50">
+        <v>11.03</v>
+      </c>
+      <c r="G50">
+        <v>0.02</v>
+      </c>
+      <c r="H50" t="s">
+        <v>119</v>
+      </c>
+      <c r="I50" t="s">
+        <v>122</v>
+      </c>
+      <c r="J50" t="s">
+        <v>150</v>
+      </c>
+      <c r="K50">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" t="s">
+        <v>62</v>
+      </c>
+      <c r="E51" t="s">
+        <v>115</v>
+      </c>
+      <c r="F51">
+        <v>12.18</v>
+      </c>
+      <c r="G51">
+        <v>0.02</v>
+      </c>
+      <c r="H51" t="s">
+        <v>121</v>
+      </c>
+      <c r="I51" t="s">
+        <v>122</v>
+      </c>
+      <c r="J51" t="s">
+        <v>141</v>
+      </c>
+      <c r="K51">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" t="s">
+        <v>63</v>
+      </c>
+      <c r="E52" t="s">
+        <v>116</v>
+      </c>
+      <c r="F52">
+        <v>15.34</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52" t="s">
+        <v>121</v>
+      </c>
+      <c r="I52" t="s">
+        <v>122</v>
+      </c>
+      <c r="J52" t="s">
+        <v>147</v>
+      </c>
+      <c r="K52">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" t="s">
+        <v>117</v>
+      </c>
+      <c r="F53">
+        <v>14.444</v>
+      </c>
+      <c r="G53">
+        <v>0.3</v>
+      </c>
+      <c r="H53" t="s">
+        <v>119</v>
+      </c>
+      <c r="I53" t="s">
+        <v>123</v>
+      </c>
+      <c r="J53" t="s">
+        <v>151</v>
+      </c>
+      <c r="K53">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" t="s">
+        <v>65</v>
+      </c>
+      <c r="E54" t="s">
+        <v>118</v>
+      </c>
+      <c r="F54">
+        <v>8.132</v>
+      </c>
+      <c r="G54">
+        <v>0.26</v>
+      </c>
+      <c r="H54" t="s">
+        <v>120</v>
+      </c>
+      <c r="I54" t="s">
+        <v>123</v>
+      </c>
+      <c r="J54" t="s">
+        <v>152</v>
+      </c>
+      <c r="K54">
+        <v>-0.01</v>
       </c>
     </row>
   </sheetData>

--- a/Investment/THS/AutoTrade/data/Strategy_position.xlsx
+++ b/Investment/THS/AutoTrade/data/Strategy_position.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="156">
   <si>
     <t>名称</t>
   </si>
@@ -64,9 +64,6 @@
     <t>*ST兰黄</t>
   </si>
   <si>
-    <t>洪兴股份</t>
-  </si>
-  <si>
     <t>农心科技</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
     <t>美能能源</t>
   </si>
   <si>
+    <t>三柏硕</t>
+  </si>
+  <si>
     <t>箭牌家居</t>
   </si>
   <si>
@@ -97,7 +97,7 @@
     <t>播恩集团</t>
   </si>
   <si>
-    <t>中天服务</t>
+    <t>双箭股份</t>
   </si>
   <si>
     <t>华斯股份</t>
@@ -106,13 +106,16 @@
     <t>ST瑞和</t>
   </si>
   <si>
+    <t>德联集团</t>
+  </si>
+  <si>
     <t>福建金森</t>
   </si>
   <si>
     <t>乔治白</t>
   </si>
   <si>
-    <t>汇洁股份</t>
+    <t>众兴菌业</t>
   </si>
   <si>
     <t>名雕股份</t>
@@ -127,6 +130,9 @@
     <t>天禾股份</t>
   </si>
   <si>
+    <t>万讯自控</t>
+  </si>
+  <si>
     <t>锐奇股份</t>
   </si>
   <si>
@@ -136,24 +142,21 @@
     <t>浙江力诺</t>
   </si>
   <si>
-    <t>华骐环保</t>
-  </si>
-  <si>
     <t>冠中生态</t>
   </si>
   <si>
     <t>华绿生物</t>
   </si>
   <si>
-    <t>建研设计</t>
-  </si>
-  <si>
     <t>仁信新材</t>
   </si>
   <si>
     <t>森泰股份</t>
   </si>
   <si>
+    <t>美新科技</t>
+  </si>
+  <si>
     <t>林海股份</t>
   </si>
   <si>
@@ -181,34 +184,34 @@
     <t>京能置业</t>
   </si>
   <si>
+    <t>新通联</t>
+  </si>
+  <si>
     <t>中重科技</t>
   </si>
   <si>
-    <t>建研院</t>
+    <t>恒尚节能</t>
+  </si>
+  <si>
+    <t>恒兴新材</t>
   </si>
   <si>
     <t>百达精工</t>
   </si>
   <si>
-    <t>宁水集团</t>
-  </si>
-  <si>
-    <t>歌力思</t>
-  </si>
-  <si>
     <t>中持股份</t>
   </si>
   <si>
-    <t>春雪食品</t>
+    <t>铁流股份</t>
+  </si>
+  <si>
+    <t>科捷智能</t>
   </si>
   <si>
     <t>九州一轨</t>
   </si>
   <si>
-    <t>金冠电气</t>
-  </si>
-  <si>
-    <t>梦网科技</t>
+    <t>赛意信息</t>
   </si>
   <si>
     <t>创意信息</t>
@@ -223,9 +226,6 @@
     <t>000929</t>
   </si>
   <si>
-    <t>001209</t>
-  </si>
-  <si>
     <t>001231</t>
   </si>
   <si>
@@ -241,6 +241,9 @@
     <t>001299</t>
   </si>
   <si>
+    <t>001300</t>
+  </si>
+  <si>
     <t>001322</t>
   </si>
   <si>
@@ -256,7 +259,7 @@
     <t>001366</t>
   </si>
   <si>
-    <t>002188</t>
+    <t>002381</t>
   </si>
   <si>
     <t>002494</t>
@@ -265,13 +268,16 @@
     <t>002620</t>
   </si>
   <si>
+    <t>002666</t>
+  </si>
+  <si>
     <t>002679</t>
   </si>
   <si>
     <t>002687</t>
   </si>
   <si>
-    <t>002763</t>
+    <t>002772</t>
   </si>
   <si>
     <t>002830</t>
@@ -286,6 +292,9 @@
     <t>002999</t>
   </si>
   <si>
+    <t>300112</t>
+  </si>
+  <si>
     <t>300126</t>
   </si>
   <si>
@@ -295,24 +304,21 @@
     <t>300838</t>
   </si>
   <si>
-    <t>300929</t>
-  </si>
-  <si>
     <t>300948</t>
   </si>
   <si>
     <t>300970</t>
   </si>
   <si>
-    <t>301167</t>
-  </si>
-  <si>
     <t>301395</t>
   </si>
   <si>
     <t>301429</t>
   </si>
   <si>
+    <t>301588</t>
+  </si>
+  <si>
     <t>600099</t>
   </si>
   <si>
@@ -340,34 +346,34 @@
     <t>600791</t>
   </si>
   <si>
+    <t>603022</t>
+  </si>
+  <si>
     <t>603135</t>
   </si>
   <si>
-    <t>603183</t>
+    <t>603137</t>
+  </si>
+  <si>
+    <t>603276</t>
   </si>
   <si>
     <t>603331</t>
   </si>
   <si>
-    <t>603700</t>
-  </si>
-  <si>
-    <t>603808</t>
-  </si>
-  <si>
     <t>603903</t>
   </si>
   <si>
-    <t>605567</t>
+    <t>603926</t>
+  </si>
+  <si>
+    <t>688455</t>
   </si>
   <si>
     <t>688485</t>
   </si>
   <si>
-    <t>688517</t>
-  </si>
-  <si>
-    <t>002123</t>
+    <t>300687</t>
   </si>
   <si>
     <t>300366</t>
@@ -382,10 +388,10 @@
     <t>科创板</t>
   </si>
   <si>
-    <t>2025-07-30 16:14:00</t>
-  </si>
-  <si>
-    <t>2025-07-30 16:13:00</t>
+    <t>2025-07-31 16:10:00</t>
+  </si>
+  <si>
+    <t>Invalid Date</t>
   </si>
   <si>
     <t>燃气</t>
@@ -397,79 +403,82 @@
     <t>饮料制造</t>
   </si>
   <si>
+    <t>农化制品</t>
+  </si>
+  <si>
+    <t>小家电</t>
+  </si>
+  <si>
+    <t>汽车零部件</t>
+  </si>
+  <si>
+    <t>家居用品</t>
+  </si>
+  <si>
+    <t>塑料制品</t>
+  </si>
+  <si>
+    <t>环保设备</t>
+  </si>
+  <si>
+    <t>化学制品</t>
+  </si>
+  <si>
+    <t>农产品加工</t>
+  </si>
+  <si>
+    <t>橡胶制品</t>
+  </si>
+  <si>
     <t>服装家纺</t>
   </si>
   <si>
-    <t>农化制品</t>
-  </si>
-  <si>
-    <t>小家电</t>
-  </si>
-  <si>
-    <t>汽车零部件</t>
-  </si>
-  <si>
-    <t>家居用品</t>
-  </si>
-  <si>
-    <t>塑料制品</t>
-  </si>
-  <si>
-    <t>环保设备</t>
-  </si>
-  <si>
-    <t>化学制品</t>
-  </si>
-  <si>
-    <t>农产品加工</t>
+    <t>建筑装饰</t>
+  </si>
+  <si>
+    <t>种植业与林业</t>
+  </si>
+  <si>
+    <t>化学纤维</t>
+  </si>
+  <si>
+    <t>通用设备</t>
+  </si>
+  <si>
+    <t>环境治理</t>
+  </si>
+  <si>
+    <t>建筑材料</t>
+  </si>
+  <si>
+    <t>影视院线</t>
+  </si>
+  <si>
+    <t>纺织制造</t>
+  </si>
+  <si>
+    <t>造纸</t>
+  </si>
+  <si>
+    <t>零售</t>
+  </si>
+  <si>
+    <t>电网设备</t>
   </si>
   <si>
     <t>房地产</t>
   </si>
   <si>
-    <t>建筑装饰</t>
-  </si>
-  <si>
-    <t>种植业与林业</t>
-  </si>
-  <si>
-    <t>化学纤维</t>
-  </si>
-  <si>
-    <t>通用设备</t>
-  </si>
-  <si>
-    <t>环境治理</t>
-  </si>
-  <si>
-    <t>建筑材料</t>
-  </si>
-  <si>
-    <t>影视院线</t>
-  </si>
-  <si>
-    <t>纺织制造</t>
-  </si>
-  <si>
-    <t>造纸</t>
-  </si>
-  <si>
-    <t>零售</t>
-  </si>
-  <si>
-    <t>电网设备</t>
+    <t>包装印刷</t>
   </si>
   <si>
     <t>专用设备</t>
   </si>
   <si>
-    <t>其他社会服务</t>
-  </si>
-  <si>
-    <t>食品加工制造</t>
-  </si>
-  <si>
-    <t>通信服务</t>
+    <t>化学原料</t>
+  </si>
+  <si>
+    <t>IT服务</t>
   </si>
   <si>
     <t>软件开发</t>
@@ -830,7 +839,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -882,7 +891,7 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F2">
         <v>6.49</v>
@@ -891,16 +900,16 @@
         <v>0.02</v>
       </c>
       <c r="H2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K2">
-        <v>-0.01</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -917,7 +926,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F3">
         <v>4.86</v>
@@ -926,16 +935,16 @@
         <v>0.02</v>
       </c>
       <c r="H3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K3">
-        <v>-0</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -952,7 +961,7 @@
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F4">
         <v>8.050000000000001</v>
@@ -961,16 +970,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K4">
-        <v>-0.04</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -987,25 +996,25 @@
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F5">
-        <v>17.92</v>
+        <v>19.92</v>
       </c>
       <c r="G5">
         <v>0.02</v>
       </c>
       <c r="H5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K5">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1022,25 +1031,25 @@
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F6">
-        <v>19.92</v>
+        <v>25.82</v>
       </c>
       <c r="G6">
         <v>0.02</v>
       </c>
       <c r="H6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K6">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1057,25 +1066,25 @@
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F7">
-        <v>25.82</v>
+        <v>18.18</v>
       </c>
       <c r="G7">
         <v>0.02</v>
       </c>
       <c r="H7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K7">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1092,25 +1101,25 @@
         <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F8">
-        <v>18.18</v>
+        <v>18.07</v>
       </c>
       <c r="G8">
         <v>0.02</v>
       </c>
       <c r="H8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K8">
-        <v>0.1</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1127,25 +1136,25 @@
         <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F9">
-        <v>18.07</v>
+        <v>11.66</v>
       </c>
       <c r="G9">
         <v>0.02</v>
       </c>
       <c r="H9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K9">
-        <v>-0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1162,25 +1171,25 @@
         <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F10">
-        <v>11.66</v>
+        <v>13.15</v>
       </c>
       <c r="G10">
         <v>0.02</v>
       </c>
       <c r="H10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J10" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="K10">
-        <v>0.04</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1197,25 +1206,25 @@
         <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F11">
         <v>8.73</v>
       </c>
       <c r="G11">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1232,7 +1241,7 @@
         <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F12">
         <v>19.88</v>
@@ -1241,16 +1250,16 @@
         <v>0.02</v>
       </c>
       <c r="H12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I12" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K12">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1267,7 +1276,7 @@
         <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F13">
         <v>21.38</v>
@@ -1276,16 +1285,16 @@
         <v>0.02</v>
       </c>
       <c r="H13" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K13">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1302,7 +1311,7 @@
         <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14">
         <v>23.47</v>
@@ -1311,16 +1320,16 @@
         <v>0.02</v>
       </c>
       <c r="H14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1337,7 +1346,7 @@
         <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F15">
         <v>12.26</v>
@@ -1346,16 +1355,16 @@
         <v>0.02</v>
       </c>
       <c r="H15" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I15" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K15">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1372,25 +1381,25 @@
         <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F16">
-        <v>5.66</v>
+        <v>7.01</v>
       </c>
       <c r="G16">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H16" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I16" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K16">
-        <v>0.03</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1407,7 +1416,7 @@
         <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F17">
         <v>5.13</v>
@@ -1416,16 +1425,16 @@
         <v>0.02</v>
       </c>
       <c r="H17" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I17" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J17" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="K17">
-        <v>0.01</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1442,7 +1451,7 @@
         <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F18">
         <v>3.98</v>
@@ -1451,16 +1460,16 @@
         <v>0.01</v>
       </c>
       <c r="H18" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I18" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J18" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K18">
-        <v>-0.03</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1477,25 +1486,25 @@
         <v>30</v>
       </c>
       <c r="E19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F19">
-        <v>10.09</v>
+        <v>5.01</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="H19" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I19" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J19" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K19">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1512,25 +1521,25 @@
         <v>31</v>
       </c>
       <c r="E20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F20">
-        <v>4.6</v>
+        <v>10.09</v>
       </c>
       <c r="G20">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I20" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J20" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="K20">
-        <v>0.05</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1547,25 +1556,25 @@
         <v>32</v>
       </c>
       <c r="E21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F21">
-        <v>7.13</v>
+        <v>4.6</v>
       </c>
       <c r="G21">
         <v>0.02</v>
       </c>
       <c r="H21" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I21" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J21" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="K21">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1582,25 +1591,25 @@
         <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F22">
-        <v>14.62</v>
+        <v>8.26</v>
       </c>
       <c r="G22">
         <v>0.02</v>
       </c>
       <c r="H22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I22" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J22" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="K22">
-        <v>0.1</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1617,25 +1626,25 @@
         <v>34</v>
       </c>
       <c r="E23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F23">
-        <v>13.15</v>
+        <v>14.62</v>
       </c>
       <c r="G23">
         <v>0.02</v>
       </c>
       <c r="H23" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I23" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J23" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K23">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1652,25 +1661,25 @@
         <v>35</v>
       </c>
       <c r="E24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F24">
-        <v>7.49</v>
+        <v>13.15</v>
       </c>
       <c r="G24">
         <v>0.02</v>
       </c>
       <c r="H24" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I24" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J24" t="s">
         <v>139</v>
       </c>
       <c r="K24">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1687,25 +1696,25 @@
         <v>36</v>
       </c>
       <c r="E25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F25">
-        <v>7.18</v>
+        <v>7.49</v>
       </c>
       <c r="G25">
         <v>0.02</v>
       </c>
       <c r="H25" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I25" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J25" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="K25">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1722,25 +1731,25 @@
         <v>37</v>
       </c>
       <c r="E26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F26">
-        <v>7.48</v>
+        <v>7.18</v>
       </c>
       <c r="G26">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I26" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J26" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="K26">
-        <v>0.01</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1757,25 +1766,25 @@
         <v>38</v>
       </c>
       <c r="E27" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F27">
-        <v>8.91</v>
+        <v>9.41</v>
       </c>
       <c r="G27">
         <v>0.02</v>
       </c>
       <c r="H27" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I27" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J27" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="K27">
-        <v>-0.03</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1792,25 +1801,25 @@
         <v>39</v>
       </c>
       <c r="E28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F28">
-        <v>15.14</v>
+        <v>7.48</v>
       </c>
       <c r="G28">
         <v>0.02</v>
       </c>
       <c r="H28" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I28" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J28" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K28">
-        <v>0.02</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1827,25 +1836,25 @@
         <v>40</v>
       </c>
       <c r="E29" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F29">
-        <v>11.21</v>
+        <v>8.91</v>
       </c>
       <c r="G29">
         <v>0.02</v>
       </c>
       <c r="H29" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I29" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J29" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="K29">
-        <v>-0</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1862,25 +1871,25 @@
         <v>41</v>
       </c>
       <c r="E30" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F30">
-        <v>11.52</v>
+        <v>15.14</v>
       </c>
       <c r="G30">
         <v>0.02</v>
       </c>
       <c r="H30" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I30" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J30" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K30">
-        <v>-0.01</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1897,25 +1906,25 @@
         <v>42</v>
       </c>
       <c r="E31" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F31">
-        <v>15.27</v>
+        <v>11.52</v>
       </c>
       <c r="G31">
         <v>0.02</v>
       </c>
       <c r="H31" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I31" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J31" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="K31">
-        <v>-0</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1932,25 +1941,25 @@
         <v>43</v>
       </c>
       <c r="E32" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F32">
-        <v>17.18</v>
+        <v>15.27</v>
       </c>
       <c r="G32">
         <v>0.02</v>
       </c>
       <c r="H32" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I32" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J32" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1967,7 +1976,7 @@
         <v>44</v>
       </c>
       <c r="E33" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F33">
         <v>11.008</v>
@@ -1976,16 +1985,16 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I33" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J33" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K33">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2002,7 +2011,7 @@
         <v>45</v>
       </c>
       <c r="E34" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F34">
         <v>18.17</v>
@@ -2011,16 +2020,16 @@
         <v>0.02</v>
       </c>
       <c r="H34" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I34" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J34" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K34">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2037,25 +2046,25 @@
         <v>46</v>
       </c>
       <c r="E35" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F35">
-        <v>11.39</v>
+        <v>19.05</v>
       </c>
       <c r="G35">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H35" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="I35" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J35" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="K35">
-        <v>-0</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2072,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="E36" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F36">
-        <v>1.95</v>
+        <v>11.39</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="H36" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I36" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J36" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2107,25 +2116,25 @@
         <v>48</v>
       </c>
       <c r="E37" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F37">
-        <v>6.45</v>
+        <v>1.95</v>
       </c>
       <c r="G37">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I37" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J37" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K37">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2142,25 +2151,25 @@
         <v>49</v>
       </c>
       <c r="E38" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F38">
-        <v>6.38</v>
+        <v>6.45</v>
       </c>
       <c r="G38">
         <v>0.02</v>
       </c>
       <c r="H38" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I38" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J38" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K38">
-        <v>0.01</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2177,25 +2186,25 @@
         <v>50</v>
       </c>
       <c r="E39" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F39">
-        <v>6.74</v>
+        <v>6.38</v>
       </c>
       <c r="G39">
         <v>0.02</v>
       </c>
       <c r="H39" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I39" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J39" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K39">
-        <v>-0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2212,25 +2221,25 @@
         <v>51</v>
       </c>
       <c r="E40" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F40">
-        <v>4.72</v>
+        <v>6.74</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="H40" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I40" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J40" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="K40">
-        <v>0.04</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2247,22 +2256,22 @@
         <v>52</v>
       </c>
       <c r="E41" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F41">
-        <v>12.33</v>
+        <v>4.72</v>
       </c>
       <c r="G41">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I41" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J41" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="K41">
         <v>0.02</v>
@@ -2282,25 +2291,25 @@
         <v>53</v>
       </c>
       <c r="E42" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F42">
-        <v>12</v>
+        <v>12.33</v>
       </c>
       <c r="G42">
         <v>0.02</v>
       </c>
       <c r="H42" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I42" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J42" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K42">
-        <v>0.04</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2317,25 +2326,25 @@
         <v>54</v>
       </c>
       <c r="E43" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F43">
-        <v>4.99</v>
+        <v>12</v>
       </c>
       <c r="G43">
         <v>0.02</v>
       </c>
       <c r="H43" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I43" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J43" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="K43">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2352,22 +2361,22 @@
         <v>55</v>
       </c>
       <c r="E44" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F44">
-        <v>10.15</v>
+        <v>4.99</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="H44" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I44" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J44" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K44">
         <v>-0.01</v>
@@ -2387,25 +2396,25 @@
         <v>56</v>
       </c>
       <c r="E45" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F45">
-        <v>4.52</v>
+        <v>10.35</v>
       </c>
       <c r="G45">
         <v>0.02</v>
       </c>
       <c r="H45" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I45" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J45" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K45">
-        <v>-0</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2422,25 +2431,25 @@
         <v>57</v>
       </c>
       <c r="E46" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F46">
-        <v>10.74</v>
+        <v>10.15</v>
       </c>
       <c r="G46">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I46" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J46" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="K46">
-        <v>-0.01</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2457,25 +2466,25 @@
         <v>58</v>
       </c>
       <c r="E47" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F47">
-        <v>12.48</v>
+        <v>14.61</v>
       </c>
       <c r="G47">
         <v>0.02</v>
       </c>
       <c r="H47" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I47" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J47" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K47">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2492,25 +2501,25 @@
         <v>59</v>
       </c>
       <c r="E48" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F48">
-        <v>8.289999999999999</v>
+        <v>16.76</v>
       </c>
       <c r="G48">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="H48" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I48" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J48" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="K48">
-        <v>0.01</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2527,25 +2536,25 @@
         <v>60</v>
       </c>
       <c r="E49" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F49">
-        <v>8.02</v>
+        <v>10.74</v>
       </c>
       <c r="G49">
         <v>0.02</v>
       </c>
       <c r="H49" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I49" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J49" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K49">
-        <v>0.02</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2562,25 +2571,25 @@
         <v>61</v>
       </c>
       <c r="E50" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F50">
-        <v>11.03</v>
+        <v>8.02</v>
       </c>
       <c r="G50">
         <v>0.02</v>
       </c>
       <c r="H50" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I50" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J50" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="K50">
-        <v>-0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2597,10 +2606,10 @@
         <v>62</v>
       </c>
       <c r="E51" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F51">
-        <v>12.18</v>
+        <v>11.87</v>
       </c>
       <c r="G51">
         <v>0.02</v>
@@ -2609,10 +2618,10 @@
         <v>121</v>
       </c>
       <c r="I51" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J51" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="K51">
         <v>-0.02</v>
@@ -2632,22 +2641,22 @@
         <v>63</v>
       </c>
       <c r="E52" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F52">
-        <v>15.34</v>
+        <v>14.59</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="H52" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I52" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J52" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K52">
         <v>-0.01</v>
@@ -2658,7 +2667,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C53" t="s">
         <v>12</v>
@@ -2667,25 +2676,25 @@
         <v>64</v>
       </c>
       <c r="E53" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F53">
-        <v>14.444</v>
+        <v>12.18</v>
       </c>
       <c r="G53">
-        <v>0.3</v>
+        <v>0.02</v>
       </c>
       <c r="H53" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="I53" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J53" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="K53">
-        <v>-0.01</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2702,24 +2711,59 @@
         <v>65</v>
       </c>
       <c r="E54" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F54">
+        <v>30.598</v>
+      </c>
+      <c r="G54">
+        <v>0.34</v>
+      </c>
+      <c r="H54" t="s">
+        <v>122</v>
+      </c>
+      <c r="I54" t="s">
+        <v>125</v>
+      </c>
+      <c r="J54" t="s">
+        <v>154</v>
+      </c>
+      <c r="K54">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" t="s">
+        <v>66</v>
+      </c>
+      <c r="E55" t="s">
+        <v>120</v>
+      </c>
+      <c r="F55">
         <v>8.132</v>
       </c>
-      <c r="G54">
+      <c r="G55">
         <v>0.26</v>
       </c>
-      <c r="H54" t="s">
-        <v>120</v>
-      </c>
-      <c r="I54" t="s">
-        <v>123</v>
-      </c>
-      <c r="J54" t="s">
-        <v>152</v>
-      </c>
-      <c r="K54">
+      <c r="H55" t="s">
+        <v>122</v>
+      </c>
+      <c r="I55" t="s">
+        <v>125</v>
+      </c>
+      <c r="J55" t="s">
+        <v>155</v>
+      </c>
+      <c r="K55">
         <v>-0.01</v>
       </c>
     </row>

--- a/Investment/THS/AutoTrade/data/Strategy_position.xlsx
+++ b/Investment/THS/AutoTrade/data/Strategy_position.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="162">
   <si>
     <t>名称</t>
   </si>
@@ -55,13 +55,25 @@
     <t>买入</t>
   </si>
   <si>
+    <t>胜利股份</t>
+  </si>
+  <si>
+    <t>湖南投资</t>
+  </si>
+  <si>
     <t>德龙汇能</t>
   </si>
   <si>
-    <t>浩物股份</t>
-  </si>
-  <si>
-    <t>*ST兰黄</t>
+    <t>三木集团</t>
+  </si>
+  <si>
+    <t>永安林业</t>
+  </si>
+  <si>
+    <t>ST金鸿</t>
+  </si>
+  <si>
+    <t>双枪科技</t>
   </si>
   <si>
     <t>农心科技</t>
@@ -73,12 +85,6 @@
     <t>坤泰股份</t>
   </si>
   <si>
-    <t>一彬科技</t>
-  </si>
-  <si>
-    <t>美能能源</t>
-  </si>
-  <si>
     <t>三柏硕</t>
   </si>
   <si>
@@ -91,34 +97,40 @@
     <t>楚环科技</t>
   </si>
   <si>
-    <t>兴欣新材</t>
-  </si>
-  <si>
     <t>播恩集团</t>
   </si>
   <si>
+    <t>中天服务</t>
+  </si>
+  <si>
+    <t>*ST交投</t>
+  </si>
+  <si>
     <t>双箭股份</t>
   </si>
   <si>
+    <t>龙星科技</t>
+  </si>
+  <si>
     <t>华斯股份</t>
   </si>
   <si>
     <t>ST瑞和</t>
   </si>
   <si>
-    <t>德联集团</t>
-  </si>
-  <si>
-    <t>福建金森</t>
-  </si>
-  <si>
     <t>乔治白</t>
   </si>
   <si>
+    <t>汇洁股份</t>
+  </si>
+  <si>
     <t>众兴菌业</t>
   </si>
   <si>
-    <t>名雕股份</t>
+    <t>黄山胶囊</t>
+  </si>
+  <si>
+    <t>新宏泽</t>
   </si>
   <si>
     <t>豪尔赛</t>
@@ -127,13 +139,7 @@
     <t>优彩资源</t>
   </si>
   <si>
-    <t>天禾股份</t>
-  </si>
-  <si>
-    <t>万讯自控</t>
-  </si>
-  <si>
-    <t>锐奇股份</t>
+    <t>津膜科技</t>
   </si>
   <si>
     <t>顶固集创</t>
@@ -148,31 +154,28 @@
     <t>华绿生物</t>
   </si>
   <si>
-    <t>仁信新材</t>
+    <t>雅艺科技</t>
+  </si>
+  <si>
+    <t>东南电子</t>
   </si>
   <si>
     <t>森泰股份</t>
   </si>
   <si>
-    <t>美新科技</t>
-  </si>
-  <si>
-    <t>林海股份</t>
-  </si>
-  <si>
-    <t>ST明诚</t>
-  </si>
-  <si>
-    <t>金鹰股份</t>
+    <t>舜禹股份</t>
+  </si>
+  <si>
+    <t>宁波联合</t>
+  </si>
+  <si>
+    <t>大龙地产</t>
   </si>
   <si>
     <t>民丰特纸</t>
   </si>
   <si>
-    <t>凤竹纺织</t>
-  </si>
-  <si>
-    <t>菲达环保</t>
+    <t>京投发展</t>
   </si>
   <si>
     <t>欧亚集团</t>
@@ -184,46 +187,64 @@
     <t>京能置业</t>
   </si>
   <si>
-    <t>新通联</t>
-  </si>
-  <si>
-    <t>中重科技</t>
+    <t>钱江生化</t>
+  </si>
+  <si>
+    <t>博闻科技</t>
+  </si>
+  <si>
+    <t>彩蝶实业</t>
   </si>
   <si>
     <t>恒尚节能</t>
   </si>
   <si>
-    <t>恒兴新材</t>
-  </si>
-  <si>
-    <t>百达精工</t>
-  </si>
-  <si>
-    <t>中持股份</t>
-  </si>
-  <si>
-    <t>铁流股份</t>
-  </si>
-  <si>
-    <t>科捷智能</t>
+    <t>万丰股份</t>
+  </si>
+  <si>
+    <t>建研院</t>
+  </si>
+  <si>
+    <t>惠达卫浴</t>
+  </si>
+  <si>
+    <t>宁水集团</t>
+  </si>
+  <si>
+    <t>醋化股份</t>
   </si>
   <si>
     <t>九州一轨</t>
   </si>
   <si>
-    <t>赛意信息</t>
-  </si>
-  <si>
-    <t>创意信息</t>
+    <t>超讯通信</t>
+  </si>
+  <si>
+    <t>顺网科技</t>
+  </si>
+  <si>
+    <t>梦网科技</t>
+  </si>
+  <si>
+    <t>000407</t>
+  </si>
+  <si>
+    <t>000548</t>
   </si>
   <si>
     <t>000593</t>
   </si>
   <si>
-    <t>000757</t>
-  </si>
-  <si>
-    <t>000929</t>
+    <t>000632</t>
+  </si>
+  <si>
+    <t>000663</t>
+  </si>
+  <si>
+    <t>000669</t>
+  </si>
+  <si>
+    <t>001211</t>
   </si>
   <si>
     <t>001231</t>
@@ -235,12 +256,6 @@
     <t>001260</t>
   </si>
   <si>
-    <t>001278</t>
-  </si>
-  <si>
-    <t>001299</t>
-  </si>
-  <si>
     <t>001300</t>
   </si>
   <si>
@@ -253,34 +268,40 @@
     <t>001336</t>
   </si>
   <si>
-    <t>001358</t>
-  </si>
-  <si>
     <t>001366</t>
   </si>
   <si>
+    <t>002188</t>
+  </si>
+  <si>
+    <t>002200</t>
+  </si>
+  <si>
     <t>002381</t>
   </si>
   <si>
+    <t>002442</t>
+  </si>
+  <si>
     <t>002494</t>
   </si>
   <si>
     <t>002620</t>
   </si>
   <si>
-    <t>002666</t>
-  </si>
-  <si>
-    <t>002679</t>
-  </si>
-  <si>
     <t>002687</t>
   </si>
   <si>
+    <t>002763</t>
+  </si>
+  <si>
     <t>002772</t>
   </si>
   <si>
-    <t>002830</t>
+    <t>002817</t>
+  </si>
+  <si>
+    <t>002836</t>
   </si>
   <si>
     <t>002963</t>
@@ -289,13 +310,7 @@
     <t>002998</t>
   </si>
   <si>
-    <t>002999</t>
-  </si>
-  <si>
-    <t>300112</t>
-  </si>
-  <si>
-    <t>300126</t>
+    <t>300334</t>
   </si>
   <si>
     <t>300749</t>
@@ -310,31 +325,28 @@
     <t>300970</t>
   </si>
   <si>
-    <t>301395</t>
+    <t>301113</t>
+  </si>
+  <si>
+    <t>301359</t>
   </si>
   <si>
     <t>301429</t>
   </si>
   <si>
-    <t>301588</t>
-  </si>
-  <si>
-    <t>600099</t>
-  </si>
-  <si>
-    <t>600136</t>
-  </si>
-  <si>
-    <t>600232</t>
+    <t>301519</t>
+  </si>
+  <si>
+    <t>600051</t>
+  </si>
+  <si>
+    <t>600159</t>
   </si>
   <si>
     <t>600235</t>
   </si>
   <si>
-    <t>600493</t>
-  </si>
-  <si>
-    <t>600526</t>
+    <t>600683</t>
   </si>
   <si>
     <t>600697</t>
@@ -346,37 +358,43 @@
     <t>600791</t>
   </si>
   <si>
-    <t>603022</t>
-  </si>
-  <si>
-    <t>603135</t>
+    <t>600796</t>
+  </si>
+  <si>
+    <t>600883</t>
+  </si>
+  <si>
+    <t>603073</t>
   </si>
   <si>
     <t>603137</t>
   </si>
   <si>
-    <t>603276</t>
-  </si>
-  <si>
-    <t>603331</t>
-  </si>
-  <si>
-    <t>603903</t>
-  </si>
-  <si>
-    <t>603926</t>
-  </si>
-  <si>
-    <t>688455</t>
+    <t>603172</t>
+  </si>
+  <si>
+    <t>603183</t>
+  </si>
+  <si>
+    <t>603385</t>
+  </si>
+  <si>
+    <t>603700</t>
+  </si>
+  <si>
+    <t>603968</t>
   </si>
   <si>
     <t>688485</t>
   </si>
   <si>
-    <t>300687</t>
-  </si>
-  <si>
-    <t>300366</t>
+    <t>603322</t>
+  </si>
+  <si>
+    <t>300113</t>
+  </si>
+  <si>
+    <t>002123</t>
   </si>
   <si>
     <t>沪深A股</t>
@@ -388,7 +406,7 @@
     <t>科创板</t>
   </si>
   <si>
-    <t>2025-07-31 16:10:00</t>
+    <t>2025-08-08 16:13:00</t>
   </si>
   <si>
     <t>Invalid Date</t>
@@ -397,10 +415,16 @@
     <t>燃气</t>
   </si>
   <si>
-    <t>汽车服务及其他</t>
-  </si>
-  <si>
-    <t>饮料制造</t>
+    <t>公路铁路运输</t>
+  </si>
+  <si>
+    <t>综合</t>
+  </si>
+  <si>
+    <t>种植业与林业</t>
+  </si>
+  <si>
+    <t>家居用品</t>
   </si>
   <si>
     <t>农化制品</t>
@@ -412,76 +436,70 @@
     <t>汽车零部件</t>
   </si>
   <si>
-    <t>家居用品</t>
-  </si>
-  <si>
     <t>塑料制品</t>
   </si>
   <si>
     <t>环保设备</t>
   </si>
   <si>
+    <t>农产品加工</t>
+  </si>
+  <si>
+    <t>房地产</t>
+  </si>
+  <si>
+    <t>建筑装饰</t>
+  </si>
+  <si>
+    <t>橡胶制品</t>
+  </si>
+  <si>
+    <t>服装家纺</t>
+  </si>
+  <si>
+    <t>医疗器械</t>
+  </si>
+  <si>
+    <t>包装印刷</t>
+  </si>
+  <si>
+    <t>化学纤维</t>
+  </si>
+  <si>
+    <t>通用设备</t>
+  </si>
+  <si>
+    <t>环境治理</t>
+  </si>
+  <si>
+    <t>其他电子</t>
+  </si>
+  <si>
+    <t>建筑材料</t>
+  </si>
+  <si>
+    <t>造纸</t>
+  </si>
+  <si>
+    <t>零售</t>
+  </si>
+  <si>
+    <t>电网设备</t>
+  </si>
+  <si>
+    <t>纺织制造</t>
+  </si>
+  <si>
     <t>化学制品</t>
   </si>
   <si>
-    <t>农产品加工</t>
-  </si>
-  <si>
-    <t>橡胶制品</t>
-  </si>
-  <si>
-    <t>服装家纺</t>
-  </si>
-  <si>
-    <t>建筑装饰</t>
-  </si>
-  <si>
-    <t>种植业与林业</t>
-  </si>
-  <si>
-    <t>化学纤维</t>
-  </si>
-  <si>
-    <t>通用设备</t>
-  </si>
-  <si>
-    <t>环境治理</t>
-  </si>
-  <si>
-    <t>建筑材料</t>
-  </si>
-  <si>
-    <t>影视院线</t>
-  </si>
-  <si>
-    <t>纺织制造</t>
-  </si>
-  <si>
-    <t>造纸</t>
-  </si>
-  <si>
-    <t>零售</t>
-  </si>
-  <si>
-    <t>电网设备</t>
-  </si>
-  <si>
-    <t>房地产</t>
-  </si>
-  <si>
-    <t>包装印刷</t>
-  </si>
-  <si>
-    <t>专用设备</t>
-  </si>
-  <si>
-    <t>化学原料</t>
+    <t>其他社会服务</t>
   </si>
   <si>
     <t>IT服务</t>
   </si>
   <si>
-    <t>软件开发</t>
+    <t>通信服务</t>
   </si>
 </sst>
 </file>
@@ -839,7 +857,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -891,25 +909,25 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F2">
-        <v>6.49</v>
+        <v>3.54</v>
       </c>
       <c r="G2">
         <v>0.02</v>
       </c>
       <c r="H2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="I2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="K2">
-        <v>-0.04</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -926,25 +944,25 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F3">
-        <v>4.86</v>
+        <v>5.62</v>
       </c>
       <c r="G3">
         <v>0.02</v>
       </c>
       <c r="H3" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="I3" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="K3">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -961,25 +979,25 @@
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F4">
-        <v>8.050000000000001</v>
+        <v>6.49</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="H4" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="I4" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J4" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K4">
-        <v>-0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -996,25 +1014,25 @@
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F5">
-        <v>19.92</v>
+        <v>4.08</v>
       </c>
       <c r="G5">
         <v>0.02</v>
       </c>
       <c r="H5" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="I5" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J5" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="K5">
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1031,25 +1049,25 @@
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F6">
-        <v>25.82</v>
+        <v>7.11</v>
       </c>
       <c r="G6">
         <v>0.02</v>
       </c>
       <c r="H6" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="I6" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J6" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="K6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1066,22 +1084,22 @@
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F7">
-        <v>18.18</v>
+        <v>3.22</v>
       </c>
       <c r="G7">
         <v>0.02</v>
       </c>
       <c r="H7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="I7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K7">
         <v>0.08</v>
@@ -1101,25 +1119,25 @@
         <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F8">
-        <v>18.07</v>
+        <v>24.52</v>
       </c>
       <c r="G8">
         <v>0.02</v>
       </c>
       <c r="H8" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="I8" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J8" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="K8">
-        <v>-0.02</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1136,25 +1154,25 @@
         <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F9">
-        <v>11.66</v>
+        <v>19.77</v>
       </c>
       <c r="G9">
         <v>0.02</v>
       </c>
       <c r="H9" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="I9" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J9" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="K9">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1171,25 +1189,25 @@
         <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F10">
-        <v>13.15</v>
+        <v>25.82</v>
       </c>
       <c r="G10">
         <v>0.02</v>
       </c>
       <c r="H10" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="I10" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J10" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="K10">
-        <v>-0.01</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1206,25 +1224,25 @@
         <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F11">
-        <v>8.73</v>
+        <v>18.18</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="H11" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="I11" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J11" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="K11">
-        <v>-0.03</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1241,25 +1259,25 @@
         <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F12">
-        <v>19.88</v>
+        <v>13.13</v>
       </c>
       <c r="G12">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="I12" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J12" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K12">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1276,25 +1294,25 @@
         <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F13">
-        <v>21.38</v>
+        <v>8.73</v>
       </c>
       <c r="G13">
         <v>0.02</v>
       </c>
       <c r="H13" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="I13" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J13" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K13">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1311,25 +1329,25 @@
         <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F14">
-        <v>23.47</v>
+        <v>19.88</v>
       </c>
       <c r="G14">
         <v>0.02</v>
       </c>
       <c r="H14" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="I14" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J14" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="K14">
-        <v>-0.02</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1346,25 +1364,25 @@
         <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F15">
-        <v>12.26</v>
+        <v>21.38</v>
       </c>
       <c r="G15">
         <v>0.02</v>
       </c>
       <c r="H15" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="I15" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J15" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="K15">
-        <v>0.05</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1381,25 +1399,25 @@
         <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F16">
-        <v>7.01</v>
+        <v>12.26</v>
       </c>
       <c r="G16">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="H16" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="I16" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J16" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="K16">
-        <v>-0.02</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1416,25 +1434,25 @@
         <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F17">
-        <v>5.13</v>
+        <v>5.94</v>
       </c>
       <c r="G17">
         <v>0.02</v>
       </c>
       <c r="H17" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="I17" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J17" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="K17">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1451,25 +1469,25 @@
         <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F18">
-        <v>3.98</v>
+        <v>7.22</v>
       </c>
       <c r="G18">
         <v>0.01</v>
       </c>
       <c r="H18" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="I18" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J18" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K18">
-        <v>-0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1486,25 +1504,25 @@
         <v>30</v>
       </c>
       <c r="E19" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F19">
-        <v>5.01</v>
+        <v>7.01</v>
       </c>
       <c r="G19">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H19" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="I19" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J19" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="K19">
-        <v>-0.02</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1521,25 +1539,25 @@
         <v>31</v>
       </c>
       <c r="E20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F20">
-        <v>10.09</v>
+        <v>6.67</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="I20" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J20" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="K20">
-        <v>-0.03</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1556,25 +1574,25 @@
         <v>32</v>
       </c>
       <c r="E21" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F21">
-        <v>4.6</v>
+        <v>5.13</v>
       </c>
       <c r="G21">
         <v>0.02</v>
       </c>
       <c r="H21" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="I21" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J21" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="K21">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1591,22 +1609,22 @@
         <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F22">
-        <v>8.26</v>
+        <v>4.1</v>
       </c>
       <c r="G22">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H22" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="I22" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J22" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="K22">
         <v>-0.01</v>
@@ -1626,22 +1644,22 @@
         <v>34</v>
       </c>
       <c r="E23" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F23">
-        <v>14.62</v>
+        <v>4.6</v>
       </c>
       <c r="G23">
         <v>0.02</v>
       </c>
       <c r="H23" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="I23" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J23" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="K23">
         <v>0.07000000000000001</v>
@@ -1661,25 +1679,25 @@
         <v>35</v>
       </c>
       <c r="E24" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F24">
-        <v>13.15</v>
+        <v>7.36</v>
       </c>
       <c r="G24">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H24" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="I24" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J24" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1696,25 +1714,25 @@
         <v>36</v>
       </c>
       <c r="E25" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F25">
-        <v>7.49</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="G25">
         <v>0.02</v>
       </c>
       <c r="H25" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="I25" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J25" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="K25">
-        <v>-0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1731,25 +1749,25 @@
         <v>37</v>
       </c>
       <c r="E26" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F26">
-        <v>7.18</v>
+        <v>8.26</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="H26" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="I26" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J26" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="K26">
-        <v>-0.03</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1766,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="E27" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F27">
-        <v>9.41</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="G27">
         <v>0.02</v>
       </c>
       <c r="H27" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="I27" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J27" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="K27">
-        <v>-0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1801,25 +1819,25 @@
         <v>39</v>
       </c>
       <c r="E28" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F28">
-        <v>7.48</v>
+        <v>13.15</v>
       </c>
       <c r="G28">
         <v>0.02</v>
       </c>
       <c r="H28" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="I28" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J28" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K28">
-        <v>-0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1836,25 +1854,25 @@
         <v>40</v>
       </c>
       <c r="E29" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F29">
-        <v>8.91</v>
+        <v>7.49</v>
       </c>
       <c r="G29">
         <v>0.02</v>
       </c>
       <c r="H29" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="I29" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J29" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="K29">
-        <v>-0.05</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1871,25 +1889,25 @@
         <v>41</v>
       </c>
       <c r="E30" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F30">
-        <v>15.14</v>
+        <v>7.44</v>
       </c>
       <c r="G30">
         <v>0.02</v>
       </c>
       <c r="H30" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="I30" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J30" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K30">
-        <v>-0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1906,25 +1924,25 @@
         <v>42</v>
       </c>
       <c r="E31" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F31">
-        <v>11.52</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="G31">
         <v>0.02</v>
       </c>
       <c r="H31" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="I31" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J31" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="K31">
-        <v>-0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1941,25 +1959,25 @@
         <v>43</v>
       </c>
       <c r="E32" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F32">
-        <v>15.27</v>
+        <v>15.14</v>
       </c>
       <c r="G32">
         <v>0.02</v>
       </c>
       <c r="H32" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="I32" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J32" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K32">
-        <v>-0.02</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1976,25 +1994,25 @@
         <v>44</v>
       </c>
       <c r="E33" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F33">
-        <v>11.008</v>
+        <v>11.52</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="H33" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="I33" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J33" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="K33">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2011,25 +2029,25 @@
         <v>45</v>
       </c>
       <c r="E34" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F34">
-        <v>18.17</v>
+        <v>15.27</v>
       </c>
       <c r="G34">
         <v>0.02</v>
       </c>
       <c r="H34" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="I34" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J34" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="K34">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2046,25 +2064,25 @@
         <v>46</v>
       </c>
       <c r="E35" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F35">
-        <v>19.05</v>
+        <v>22.63</v>
       </c>
       <c r="G35">
         <v>0.01</v>
       </c>
       <c r="H35" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="I35" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J35" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="K35">
-        <v>-0.02</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2081,25 +2099,25 @@
         <v>47</v>
       </c>
       <c r="E36" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F36">
-        <v>11.39</v>
+        <v>22.35</v>
       </c>
       <c r="G36">
         <v>0.02</v>
       </c>
       <c r="H36" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="I36" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J36" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="K36">
-        <v>-0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2116,25 +2134,25 @@
         <v>48</v>
       </c>
       <c r="E37" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F37">
-        <v>1.95</v>
+        <v>18.17</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="H37" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="I37" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J37" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="K37">
-        <v>-0.01</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2151,25 +2169,25 @@
         <v>49</v>
       </c>
       <c r="E38" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F38">
-        <v>6.45</v>
+        <v>14.66</v>
       </c>
       <c r="G38">
         <v>0.02</v>
       </c>
       <c r="H38" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="I38" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J38" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="K38">
-        <v>-0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2186,25 +2204,25 @@
         <v>50</v>
       </c>
       <c r="E39" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F39">
-        <v>6.38</v>
+        <v>7.48</v>
       </c>
       <c r="G39">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H39" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="I39" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J39" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2221,25 +2239,25 @@
         <v>51</v>
       </c>
       <c r="E40" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F40">
-        <v>6.74</v>
+        <v>2.83</v>
       </c>
       <c r="G40">
         <v>0.02</v>
       </c>
       <c r="H40" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="I40" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J40" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K40">
-        <v>-0.03</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2256,25 +2274,25 @@
         <v>52</v>
       </c>
       <c r="E41" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F41">
-        <v>4.72</v>
+        <v>6.38</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="H41" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="I41" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J41" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="K41">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2291,25 +2309,25 @@
         <v>53</v>
       </c>
       <c r="E42" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F42">
-        <v>12.33</v>
+        <v>4.14</v>
       </c>
       <c r="G42">
         <v>0.02</v>
       </c>
       <c r="H42" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="I42" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J42" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="K42">
-        <v>-0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2326,25 +2344,25 @@
         <v>54</v>
       </c>
       <c r="E43" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F43">
-        <v>12</v>
+        <v>12.33</v>
       </c>
       <c r="G43">
         <v>0.02</v>
       </c>
       <c r="H43" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="I43" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J43" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="K43">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2361,25 +2379,25 @@
         <v>55</v>
       </c>
       <c r="E44" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F44">
-        <v>4.99</v>
+        <v>12</v>
       </c>
       <c r="G44">
         <v>0.02</v>
       </c>
       <c r="H44" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="I44" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J44" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="K44">
-        <v>-0.01</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2396,25 +2414,25 @@
         <v>56</v>
       </c>
       <c r="E45" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F45">
-        <v>10.35</v>
+        <v>5.07</v>
       </c>
       <c r="G45">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H45" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="I45" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J45" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="K45">
-        <v>-0.01</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2431,25 +2449,25 @@
         <v>57</v>
       </c>
       <c r="E46" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F46">
-        <v>10.15</v>
+        <v>5.89</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="H46" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="I46" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J46" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K46">
-        <v>-0.03</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2466,25 +2484,25 @@
         <v>58</v>
       </c>
       <c r="E47" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F47">
-        <v>14.61</v>
+        <v>8.41</v>
       </c>
       <c r="G47">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H47" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="I47" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J47" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2501,25 +2519,25 @@
         <v>59</v>
       </c>
       <c r="E48" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F48">
-        <v>16.76</v>
+        <v>18.08</v>
       </c>
       <c r="G48">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H48" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="I48" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J48" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K48">
-        <v>-0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2536,25 +2554,25 @@
         <v>60</v>
       </c>
       <c r="E49" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F49">
-        <v>10.74</v>
+        <v>14.61</v>
       </c>
       <c r="G49">
         <v>0.02</v>
       </c>
       <c r="H49" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="I49" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J49" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K49">
-        <v>-0.03</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2571,25 +2589,25 @@
         <v>61</v>
       </c>
       <c r="E50" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F50">
-        <v>8.02</v>
+        <v>16.76</v>
       </c>
       <c r="G50">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H50" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="I50" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J50" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2606,25 +2624,25 @@
         <v>62</v>
       </c>
       <c r="E51" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F51">
-        <v>11.87</v>
+        <v>4.54</v>
       </c>
       <c r="G51">
         <v>0.02</v>
       </c>
       <c r="H51" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="I51" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J51" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="K51">
-        <v>-0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2641,25 +2659,25 @@
         <v>63</v>
       </c>
       <c r="E52" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F52">
-        <v>14.59</v>
+        <v>6.95</v>
       </c>
       <c r="G52">
         <v>0.02</v>
       </c>
       <c r="H52" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="I52" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J52" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="K52">
-        <v>-0.01</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2676,25 +2694,25 @@
         <v>64</v>
       </c>
       <c r="E53" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F53">
-        <v>12.18</v>
+        <v>12.74</v>
       </c>
       <c r="G53">
         <v>0.02</v>
       </c>
       <c r="H53" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="I53" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J53" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="K53">
-        <v>-0.03</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2702,7 +2720,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C54" t="s">
         <v>12</v>
@@ -2711,25 +2729,25 @@
         <v>65</v>
       </c>
       <c r="E54" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F54">
-        <v>30.598</v>
+        <v>12.76</v>
       </c>
       <c r="G54">
-        <v>0.34</v>
+        <v>0.02</v>
       </c>
       <c r="H54" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="I54" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="J54" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K54">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2737,7 +2755,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C55" t="s">
         <v>12</v>
@@ -2746,25 +2764,130 @@
         <v>66</v>
       </c>
       <c r="E55" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F55">
-        <v>8.132</v>
+        <v>12.18</v>
       </c>
       <c r="G55">
-        <v>0.26</v>
+        <v>0.01</v>
       </c>
       <c r="H55" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="I55" t="s">
+        <v>130</v>
+      </c>
+      <c r="J55" t="s">
+        <v>151</v>
+      </c>
+      <c r="K55">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" t="s">
+        <v>67</v>
+      </c>
+      <c r="E56" t="s">
+        <v>124</v>
+      </c>
+      <c r="F56">
+        <v>38.82</v>
+      </c>
+      <c r="G56">
+        <v>0.18</v>
+      </c>
+      <c r="H56" t="s">
+        <v>127</v>
+      </c>
+      <c r="I56" t="s">
+        <v>131</v>
+      </c>
+      <c r="J56" t="s">
+        <v>160</v>
+      </c>
+      <c r="K56">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" t="s">
+        <v>68</v>
+      </c>
+      <c r="E57" t="s">
         <v>125</v>
       </c>
-      <c r="J55" t="s">
-        <v>155</v>
-      </c>
-      <c r="K55">
+      <c r="F57">
+        <v>20.715</v>
+      </c>
+      <c r="G57">
+        <v>0.46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>128</v>
+      </c>
+      <c r="I57" t="s">
+        <v>131</v>
+      </c>
+      <c r="J57" t="s">
+        <v>161</v>
+      </c>
+      <c r="K57">
         <v>-0.01</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" t="s">
+        <v>126</v>
+      </c>
+      <c r="F58">
+        <v>14.734</v>
+      </c>
+      <c r="G58">
+        <v>0.32</v>
+      </c>
+      <c r="H58" t="s">
+        <v>127</v>
+      </c>
+      <c r="I58" t="s">
+        <v>131</v>
+      </c>
+      <c r="J58" t="s">
+        <v>161</v>
+      </c>
+      <c r="K58">
+        <v>-0</v>
       </c>
     </row>
   </sheetData>
